--- a/July19_July20SSO.xlsx
+++ b/July19_July20SSO.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\Orbital Determination\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Documents\HERON Mk II\orbital\orbital\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" xr2:uid="{EED98DFD-C78E-4E39-8F3C-3D6DCDD36167}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="9948" xr2:uid="{EED98DFD-C78E-4E39-8F3C-3D6DCDD36167}"/>
   </bookViews>
   <sheets>
     <sheet name="SSO Beta Angles" sheetId="2" r:id="rId1"/>
@@ -466,15 +466,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7F7A27-F922-4994-9175-DA6FD1F4A786}">
-  <dimension ref="A1:H398"/>
+  <dimension ref="A1:I398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G223" sqref="G223:H225"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,11 +490,12 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>2019</v>
       </c>
@@ -510,12 +511,13 @@
       <c r="E2" s="6">
         <v>18.091999999999999</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6"/>
+      <c r="G2" s="7">
         <f>ACOS((400^2+2*6371*400)^0.5/((6371+400)*COS(E2/180*PI())))/PI()</f>
         <v>0.38406243621088204</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5">
@@ -529,12 +531,13 @@
       <c r="E3" s="6">
         <v>18.154</v>
       </c>
-      <c r="F3" s="7">
-        <f t="shared" ref="F3:F66" si="1">ACOS((400^2+2*6371*400)^0.5/((6371+400)*COS(E3/180*PI())))/PI()</f>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G66" si="1">ACOS((400^2+2*6371*400)^0.5/((6371+400)*COS(E3/180*PI())))/PI()</f>
         <v>0.38401944864423559</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5">
@@ -548,12 +551,13 @@
       <c r="E4" s="6">
         <v>18.216999999999999</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6"/>
+      <c r="G4" s="7">
         <f t="shared" si="1"/>
         <v>0.38397558852748176</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5">
@@ -567,12 +571,13 @@
       <c r="E5" s="6">
         <v>18.282</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6"/>
+      <c r="G5" s="7">
         <f t="shared" si="1"/>
         <v>0.38393014635097461</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5">
@@ -586,12 +591,13 @@
       <c r="E6" s="6">
         <v>18.347000000000001</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6"/>
+      <c r="G6" s="7">
         <f t="shared" si="1"/>
         <v>0.38388451117638978</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5">
@@ -605,12 +611,13 @@
       <c r="E7" s="6">
         <v>18.413</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6"/>
+      <c r="G7" s="7">
         <f t="shared" si="1"/>
         <v>0.38383797607215503</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5">
@@ -624,12 +631,13 @@
       <c r="E8" s="6">
         <v>18.478999999999999</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6"/>
+      <c r="G8" s="7">
         <f t="shared" si="1"/>
         <v>0.38379124122543823</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5">
@@ -643,12 +651,13 @@
       <c r="E9" s="6">
         <v>18.545999999999999</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6"/>
+      <c r="G9" s="7">
         <f t="shared" si="1"/>
         <v>0.38374359357302829</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5">
@@ -662,12 +671,13 @@
       <c r="E10" s="6">
         <v>18.613</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6"/>
+      <c r="G10" s="7">
         <f t="shared" si="1"/>
         <v>0.38369573927544998</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5">
@@ -681,12 +691,13 @@
       <c r="E11" s="6">
         <v>18.681000000000001</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6"/>
+      <c r="G11" s="7">
         <f t="shared" si="1"/>
         <v>0.38364695902046902</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5">
@@ -700,12 +711,13 @@
       <c r="E12" s="6">
         <v>18.748000000000001</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6"/>
+      <c r="G12" s="7">
         <f t="shared" si="1"/>
         <v>0.3835986871058073</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5">
@@ -719,12 +731,13 @@
       <c r="E13" s="6">
         <v>18.815999999999999</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6"/>
+      <c r="G13" s="7">
         <f t="shared" si="1"/>
         <v>0.3835494821525276</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5">
@@ -738,12 +751,13 @@
       <c r="E14" s="6">
         <v>18.884</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6"/>
+      <c r="G14" s="7">
         <f t="shared" si="1"/>
         <v>0.38350006263067049</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5">
@@ -757,12 +771,13 @@
       <c r="E15" s="6">
         <v>18.952000000000002</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6"/>
+      <c r="G15" s="7">
         <f t="shared" si="1"/>
         <v>0.38345042810398067</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5">
@@ -776,12 +791,13 @@
       <c r="E16" s="6">
         <v>19.02</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6"/>
+      <c r="G16" s="7">
         <f t="shared" si="1"/>
         <v>0.38340057813381762</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5">
@@ -795,12 +811,13 @@
       <c r="E17" s="6">
         <v>19.087</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6"/>
+      <c r="G17" s="7">
         <f t="shared" si="1"/>
         <v>0.38335125010787896</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5">
@@ -814,12 +831,13 @@
       <c r="E18" s="6">
         <v>19.155000000000001</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6"/>
+      <c r="G18" s="7">
         <f t="shared" si="1"/>
         <v>0.38330097110977179</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5">
@@ -833,12 +851,13 @@
       <c r="E19" s="6">
         <v>19.222000000000001</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6"/>
+      <c r="G19" s="7">
         <f t="shared" si="1"/>
         <v>0.38325121950179486</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5">
@@ -852,12 +871,13 @@
       <c r="E20" s="6">
         <v>19.288</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6"/>
+      <c r="G20" s="7">
         <f t="shared" si="1"/>
         <v>0.38320200428729662</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5">
@@ -871,12 +891,13 @@
       <c r="E21" s="6">
         <v>19.353999999999999</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6"/>
+      <c r="G21" s="7">
         <f t="shared" si="1"/>
         <v>0.38315258404100955</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5">
@@ -890,12 +911,13 @@
       <c r="E22" s="6">
         <v>19.420000000000002</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6"/>
+      <c r="G22" s="7">
         <f t="shared" si="1"/>
         <v>0.3831029583487443</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5">
@@ -909,12 +931,13 @@
       <c r="E23" s="6">
         <v>19.484999999999999</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6"/>
+      <c r="G23" s="7">
         <f t="shared" si="1"/>
         <v>0.3830538833556803</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5">
@@ -928,12 +951,13 @@
       <c r="E24" s="6">
         <v>19.548999999999999</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6"/>
+      <c r="G24" s="7">
         <f t="shared" si="1"/>
         <v>0.38300536788670902</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5">
@@ -947,12 +971,13 @@
       <c r="E25" s="6">
         <v>19.613</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6"/>
+      <c r="G25" s="7">
         <f t="shared" si="1"/>
         <v>0.3829566580716619</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5">
@@ -966,12 +991,13 @@
       <c r="E26" s="6">
         <v>19.675000000000001</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6"/>
+      <c r="G26" s="7">
         <f t="shared" si="1"/>
         <v>0.3829092847435086</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5">
@@ -985,12 +1011,13 @@
       <c r="E27" s="6">
         <v>19.736999999999998</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6"/>
+      <c r="G27" s="7">
         <f t="shared" si="1"/>
         <v>0.38286172831200627</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5">
@@ -1004,12 +1031,13 @@
       <c r="E28" s="6">
         <v>19.797999999999998</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6"/>
+      <c r="G28" s="7">
         <f t="shared" si="1"/>
         <v>0.38281475987883734</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5">
@@ -1023,12 +1051,13 @@
       <c r="E29" s="6">
         <v>19.858000000000001</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6"/>
+      <c r="G29" s="7">
         <f t="shared" si="1"/>
         <v>0.38276838784718881</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5">
@@ -1042,12 +1071,13 @@
       <c r="E30" s="6">
         <v>19.917000000000002</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6"/>
+      <c r="G30" s="7">
         <f t="shared" si="1"/>
         <v>0.38272262050807199</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5">
@@ -1061,12 +1091,13 @@
       <c r="E31" s="6">
         <v>19.975000000000001</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6"/>
+      <c r="G31" s="7">
         <f t="shared" si="1"/>
         <v>0.3826774660392232</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5">
@@ -1080,12 +1111,13 @@
       <c r="E32" s="6">
         <v>20.030999999999999</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6"/>
+      <c r="G32" s="7">
         <f t="shared" si="1"/>
         <v>0.38263371514203792</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="4" t="s">
         <v>7</v>
@@ -1100,12 +1132,13 @@
       <c r="E33" s="6">
         <v>20.085999999999999</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6"/>
+      <c r="G33" s="7">
         <f t="shared" si="1"/>
         <v>0.38259059847788945</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5">
@@ -1119,12 +1152,13 @@
       <c r="E34" s="6">
         <v>20.14</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6"/>
+      <c r="G34" s="7">
         <f t="shared" si="1"/>
         <v>0.38254812374727665</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5">
@@ -1138,12 +1172,13 @@
       <c r="E35" s="6">
         <v>20.192</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6"/>
+      <c r="G35" s="7">
         <f t="shared" si="1"/>
         <v>0.38250708894527996</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5">
@@ -1157,12 +1192,13 @@
       <c r="E36" s="6">
         <v>20.242999999999999</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6"/>
+      <c r="G36" s="7">
         <f t="shared" si="1"/>
         <v>0.38246671611211036</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5">
@@ -1176,12 +1212,13 @@
       <c r="E37" s="6">
         <v>20.291</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6"/>
+      <c r="G37" s="7">
         <f t="shared" si="1"/>
         <v>0.3824286029324947</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5">
@@ -1195,12 +1232,13 @@
       <c r="E38" s="6">
         <v>20.338999999999999</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6"/>
+      <c r="G38" s="7">
         <f t="shared" si="1"/>
         <v>0.38239037785008734</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5">
@@ -1214,12 +1252,13 @@
       <c r="E39" s="6">
         <v>20.384</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6"/>
+      <c r="G39" s="7">
         <f t="shared" si="1"/>
         <v>0.38235444005158575</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5">
@@ -1233,12 +1272,13 @@
       <c r="E40" s="6">
         <v>20.428000000000001</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6"/>
+      <c r="G40" s="7">
         <f t="shared" si="1"/>
         <v>0.38231920548958936</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5">
@@ -1252,12 +1292,13 @@
       <c r="E41" s="6">
         <v>20.47</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6"/>
+      <c r="G41" s="7">
         <f t="shared" si="1"/>
         <v>0.38228548439802779</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5">
@@ -1271,12 +1312,13 @@
       <c r="E42" s="6">
         <v>20.51</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="6"/>
+      <c r="G42" s="7">
         <f t="shared" si="1"/>
         <v>0.38225328896151434</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5">
@@ -1290,12 +1332,13 @@
       <c r="E43" s="6">
         <v>20.547999999999998</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6"/>
+      <c r="G43" s="7">
         <f t="shared" si="1"/>
         <v>0.38222263080997221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5">
@@ -1309,12 +1352,13 @@
       <c r="E44" s="6">
         <v>20.584</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="6"/>
+      <c r="G44" s="7">
         <f t="shared" si="1"/>
         <v>0.38219352101500009</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5">
@@ -1328,12 +1372,13 @@
       <c r="E45" s="6">
         <v>20.617999999999999</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6"/>
+      <c r="G45" s="7">
         <f t="shared" si="1"/>
         <v>0.38216597008639536</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5">
@@ -1347,12 +1392,13 @@
       <c r="E46" s="6">
         <v>20.651</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6"/>
+      <c r="G46" s="7">
         <f t="shared" si="1"/>
         <v>0.38213917521720236</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5">
@@ -1366,12 +1412,13 @@
       <c r="E47" s="6">
         <v>20.681000000000001</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="6"/>
+      <c r="G47" s="7">
         <f t="shared" si="1"/>
         <v>0.38211476981229126</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5">
@@ -1385,12 +1432,13 @@
       <c r="E48" s="6">
         <v>20.709</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="6"/>
+      <c r="G48" s="7">
         <f t="shared" si="1"/>
         <v>0.3820919514969997</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5">
@@ -1404,12 +1452,13 @@
       <c r="E49" s="6">
         <v>20.736000000000001</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="6"/>
+      <c r="G49" s="7">
         <f t="shared" si="1"/>
         <v>0.38206991156866882</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5">
@@ -1423,12 +1472,13 @@
       <c r="E50" s="6">
         <v>20.76</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="6"/>
+      <c r="G50" s="7">
         <f t="shared" si="1"/>
         <v>0.38205029036690208</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5">
@@ -1442,12 +1492,13 @@
       <c r="E51" s="6">
         <v>20.783000000000001</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="6"/>
+      <c r="G51" s="7">
         <f t="shared" si="1"/>
         <v>0.38203146006228589</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5">
@@ -1461,12 +1512,13 @@
       <c r="E52" s="6">
         <v>20.803000000000001</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="6"/>
+      <c r="G52" s="7">
         <f t="shared" si="1"/>
         <v>0.38201506466485458</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5">
@@ -1480,12 +1532,13 @@
       <c r="E53" s="6">
         <v>20.821999999999999</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="6"/>
+      <c r="G53" s="7">
         <f t="shared" si="1"/>
         <v>0.38199947074158797</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5">
@@ -1499,12 +1552,13 @@
       <c r="E54" s="6">
         <v>20.838000000000001</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="6"/>
+      <c r="G54" s="7">
         <f t="shared" si="1"/>
         <v>0.38198632518169751</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5">
@@ -1518,12 +1572,13 @@
       <c r="E55" s="6">
         <v>20.853000000000002</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6"/>
+      <c r="G55" s="7">
         <f t="shared" si="1"/>
         <v>0.38197398972499214</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5">
@@ -1537,12 +1592,13 @@
       <c r="E56" s="6">
         <v>20.864999999999998</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="6"/>
+      <c r="G56" s="7">
         <f t="shared" si="1"/>
         <v>0.38196411334691788</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5">
@@ -1556,12 +1612,13 @@
       <c r="E57" s="6">
         <v>20.876000000000001</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="6"/>
+      <c r="G57" s="7">
         <f t="shared" si="1"/>
         <v>0.38195505374090505</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5">
@@ -1575,12 +1632,13 @@
       <c r="E58" s="6">
         <v>20.885000000000002</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="6"/>
+      <c r="G58" s="7">
         <f t="shared" si="1"/>
         <v>0.38194763688106281</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5">
@@ -1594,12 +1652,13 @@
       <c r="E59" s="6">
         <v>20.891999999999999</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="6"/>
+      <c r="G59" s="7">
         <f t="shared" si="1"/>
         <v>0.38194186543952341</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5">
@@ -1613,12 +1672,13 @@
       <c r="E60" s="6">
         <v>20.896999999999998</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="6"/>
+      <c r="G60" s="7">
         <f t="shared" si="1"/>
         <v>0.38193774149552456</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5">
@@ -1632,12 +1692,13 @@
       <c r="E61" s="6">
         <v>20.9</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="6"/>
+      <c r="G61" s="7">
         <f t="shared" si="1"/>
         <v>0.38193526653472476</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5">
@@ -1651,12 +1712,13 @@
       <c r="E62" s="6">
         <v>20.901</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="6"/>
+      <c r="G62" s="7">
         <f t="shared" si="1"/>
         <v>0.38193444144871502</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5">
@@ -1670,12 +1732,13 @@
       <c r="E63" s="6">
         <v>20.9</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="6"/>
+      <c r="G63" s="7">
         <f t="shared" si="1"/>
         <v>0.38193526653472476</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="4" t="s">
         <v>8</v>
@@ -1690,12 +1753,13 @@
       <c r="E64" s="6">
         <v>20.898</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="6"/>
+      <c r="G64" s="7">
         <f t="shared" si="1"/>
         <v>0.38193691655812795</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5">
@@ -1709,12 +1773,13 @@
       <c r="E65" s="6">
         <v>20.893000000000001</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="6"/>
+      <c r="G65" s="7">
         <f t="shared" si="1"/>
         <v>0.38194104074978275</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5">
@@ -1728,12 +1793,13 @@
       <c r="E66" s="6">
         <v>20.887</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="6"/>
+      <c r="G66" s="7">
         <f t="shared" si="1"/>
         <v>0.38194598814536468</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5">
@@ -1747,12 +1813,13 @@
       <c r="E67" s="6">
         <v>20.878</v>
       </c>
-      <c r="F67" s="7">
-        <f t="shared" ref="F67:F124" si="6">ACOS((400^2+2*6371*400)^0.5/((6371+400)*COS(E67/180*PI())))/PI()</f>
+      <c r="F67" s="6"/>
+      <c r="G67" s="7">
+        <f t="shared" ref="G67:G124" si="6">ACOS((400^2+2*6371*400)^0.5/((6371+400)*COS(E67/180*PI())))/PI()</f>
         <v>0.38195340589637244</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5">
@@ -1766,12 +1833,13 @@
       <c r="E68" s="6">
         <v>20.867999999999999</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="6"/>
+      <c r="G68" s="7">
         <f t="shared" si="6"/>
         <v>0.38196164313915698</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5">
@@ -1785,12 +1853,13 @@
       <c r="E69" s="6">
         <v>20.856999999999999</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="6"/>
+      <c r="G69" s="7">
         <f t="shared" si="6"/>
         <v>0.38197069839051095</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5">
@@ -1804,12 +1873,13 @@
       <c r="E70" s="6">
         <v>20.843</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="6"/>
+      <c r="G70" s="7">
         <f t="shared" si="6"/>
         <v>0.38198221459902709</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5">
@@ -1823,12 +1893,13 @@
       <c r="E71" s="6">
         <v>20.827999999999999</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="6"/>
+      <c r="G71" s="7">
         <f t="shared" si="6"/>
         <v>0.38199454263935967</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5">
@@ -1842,12 +1913,13 @@
       <c r="E72" s="6">
         <v>20.811</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="6"/>
+      <c r="G72" s="7">
         <f t="shared" si="6"/>
         <v>0.38200850097586125</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5">
@@ -1861,12 +1933,13 @@
       <c r="E73" s="6">
         <v>20.792999999999999</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="6"/>
+      <c r="G73" s="7">
         <f t="shared" si="6"/>
         <v>0.38202326483184385</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5">
@@ -1880,12 +1953,13 @@
       <c r="E74" s="6">
         <v>20.773</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="6"/>
+      <c r="G74" s="7">
         <f t="shared" si="6"/>
         <v>0.38203965035779808</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5">
@@ -1899,12 +1973,13 @@
       <c r="E75" s="6">
         <v>20.751999999999999</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="6"/>
+      <c r="G75" s="7">
         <f t="shared" si="6"/>
         <v>0.3820568339223665</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5">
@@ -1918,12 +1993,13 @@
       <c r="E76" s="6">
         <v>20.728999999999999</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="6"/>
+      <c r="G76" s="7">
         <f t="shared" si="6"/>
         <v>0.38207562907202519</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5">
@@ -1937,12 +2013,13 @@
       <c r="E77" s="6">
         <v>20.704999999999998</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="6"/>
+      <c r="G77" s="7">
         <f t="shared" si="6"/>
         <v>0.38209521361854371</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5">
@@ -1956,12 +2033,13 @@
       <c r="E78" s="6">
         <v>20.68</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="6"/>
+      <c r="G78" s="7">
         <f t="shared" si="6"/>
         <v>0.38211558403873086</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5">
@@ -1975,12 +2053,13 @@
       <c r="E79" s="6">
         <v>20.654</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="6"/>
+      <c r="G79" s="7">
         <f t="shared" si="6"/>
         <v>0.38213673666747117</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5">
@@ -1994,12 +2073,13 @@
       <c r="E80" s="6">
         <v>20.626999999999999</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="6"/>
+      <c r="G80" s="7">
         <f t="shared" si="6"/>
         <v>0.38215866769830703</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5">
@@ -2013,12 +2093,13 @@
       <c r="E81" s="6">
         <v>20.599</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="6"/>
+      <c r="G81" s="7">
         <f t="shared" si="6"/>
         <v>0.38218137318404133</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5">
@@ -2032,12 +2113,13 @@
       <c r="E82" s="6">
         <v>20.57</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="6"/>
+      <c r="G82" s="7">
         <f t="shared" si="6"/>
         <v>0.38220484903736135</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5">
@@ -2051,12 +2133,13 @@
       <c r="E83" s="6">
         <v>20.54</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="6"/>
+      <c r="G83" s="7">
         <f t="shared" si="6"/>
         <v>0.38222909103148034</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5">
@@ -2070,12 +2153,13 @@
       <c r="E84" s="6">
         <v>20.51</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="6"/>
+      <c r="G84" s="7">
         <f t="shared" si="6"/>
         <v>0.38225328896151434</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5">
@@ -2089,12 +2173,13 @@
       <c r="E85" s="6">
         <v>20.478999999999999</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="6"/>
+      <c r="G85" s="7">
         <f t="shared" si="6"/>
         <v>0.38227824724289272</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5">
@@ -2108,12 +2193,13 @@
       <c r="E86" s="6">
         <v>20.446999999999999</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="6"/>
+      <c r="G86" s="7">
         <f t="shared" si="6"/>
         <v>0.38230396137619155</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5">
@@ -2127,12 +2213,13 @@
       <c r="E87" s="6">
         <v>20.414999999999999</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="6"/>
+      <c r="G87" s="7">
         <f t="shared" si="6"/>
         <v>0.38232962552488425</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5">
@@ -2146,12 +2233,13 @@
       <c r="E88" s="6">
         <v>20.382000000000001</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="6"/>
+      <c r="G88" s="7">
         <f t="shared" si="6"/>
         <v>0.3823560393807266</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5">
@@ -2165,12 +2253,13 @@
       <c r="E89" s="6">
         <v>20.350000000000001</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="6"/>
+      <c r="G89" s="7">
         <f t="shared" si="6"/>
         <v>0.38238160215672817</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5">
@@ -2184,12 +2273,13 @@
       <c r="E90" s="6">
         <v>20.317</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="6"/>
+      <c r="G90" s="7">
         <f t="shared" si="6"/>
         <v>0.38240791158121573</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5">
@@ -2203,12 +2293,13 @@
       <c r="E91" s="6">
         <v>20.283999999999999</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91" s="6"/>
+      <c r="G91" s="7">
         <f t="shared" si="6"/>
         <v>0.38243416807006975</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B92" s="5"/>
       <c r="C92" s="5">
         <f t="shared" si="7"/>
@@ -2221,12 +2312,13 @@
       <c r="E92" s="6">
         <v>20.25</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="6"/>
+      <c r="G92" s="7">
         <f t="shared" si="6"/>
         <v>0.38246116490310555</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
       <c r="C93" s="5">
         <f t="shared" si="7"/>
@@ -2239,12 +2331,13 @@
       <c r="E93" s="6">
         <v>20.216999999999999</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="6"/>
+      <c r="G93" s="7">
         <f t="shared" si="6"/>
         <v>0.38248731408854042</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -2258,12 +2351,13 @@
       <c r="E94" s="6">
         <v>20.184000000000001</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="6"/>
+      <c r="G94" s="7">
         <f t="shared" si="6"/>
         <v>0.38251341050743787</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
       <c r="C95" s="5">
         <f t="shared" si="7"/>
@@ -2276,12 +2370,13 @@
       <c r="E95" s="6">
         <v>20.151</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="6"/>
+      <c r="G95" s="7">
         <f t="shared" si="6"/>
         <v>0.38253945421530805</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B96" s="5"/>
       <c r="C96" s="5">
         <f t="shared" si="7"/>
@@ -2294,12 +2389,13 @@
       <c r="E96" s="6">
         <v>20.117999999999999</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="6"/>
+      <c r="G96" s="7">
         <f t="shared" si="6"/>
         <v>0.38256544526751662</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="5"/>
       <c r="C97" s="5">
         <f t="shared" si="7"/>
@@ -2312,12 +2408,13 @@
       <c r="E97" s="6">
         <v>20.085000000000001</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="6"/>
+      <c r="G97" s="7">
         <f t="shared" si="6"/>
         <v>0.38259138371928558</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="5"/>
       <c r="C98" s="5">
         <f t="shared" si="7"/>
@@ -2330,12 +2427,13 @@
       <c r="E98" s="6">
         <v>20.053000000000001</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="6"/>
+      <c r="G98" s="7">
         <f t="shared" si="6"/>
         <v>0.3826164859757728</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
       <c r="C99" s="5">
         <f t="shared" ref="C99:D114" si="8">C98+1</f>
@@ -2348,12 +2446,13 @@
       <c r="E99" s="6">
         <v>20.021000000000001</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99" s="6"/>
+      <c r="G99" s="7">
         <f t="shared" si="6"/>
         <v>0.38264153887330837</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
       <c r="C100" s="5">
         <f t="shared" si="8"/>
@@ -2366,12 +2465,13 @@
       <c r="E100" s="6">
         <v>19.989000000000001</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="6"/>
+      <c r="G100" s="7">
         <f t="shared" si="6"/>
         <v>0.38266654246185866</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
       <c r="C101" s="5">
         <f t="shared" si="8"/>
@@ -2384,12 +2484,13 @@
       <c r="E101" s="6">
         <v>19.957999999999998</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101" s="6"/>
+      <c r="G101" s="7">
         <f t="shared" si="6"/>
         <v>0.38269071771359753</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
       <c r="C102" s="5">
         <f t="shared" si="8"/>
@@ -2402,12 +2503,13 @@
       <c r="E102" s="6">
         <v>19.928000000000001</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="6"/>
+      <c r="G102" s="7">
         <f t="shared" si="6"/>
         <v>0.38271406914534073</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
       <c r="C103" s="5">
         <f t="shared" si="8"/>
@@ -2420,12 +2522,13 @@
       <c r="E103" s="6">
         <v>19.899000000000001</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="6"/>
+      <c r="G103" s="7">
         <f t="shared" si="6"/>
         <v>0.38273660112116487</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="5"/>
       <c r="C104" s="5">
         <f t="shared" si="8"/>
@@ -2438,12 +2541,13 @@
       <c r="E104" s="6">
         <v>19.87</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="6"/>
+      <c r="G104" s="7">
         <f t="shared" si="6"/>
         <v>0.38275909275556458</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="5"/>
       <c r="C105" s="5">
         <f t="shared" si="8"/>
@@ -2456,12 +2560,13 @@
       <c r="E105" s="6">
         <v>19.841999999999999</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="6"/>
+      <c r="G105" s="7">
         <f t="shared" si="6"/>
         <v>0.38278077057204651</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="5"/>
       <c r="C106" s="5">
         <f t="shared" si="8"/>
@@ -2474,12 +2579,13 @@
       <c r="E106" s="6">
         <v>19.815999999999999</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106" s="6"/>
+      <c r="G106" s="7">
         <f t="shared" si="6"/>
         <v>0.38280086635876437</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="5"/>
       <c r="C107" s="5">
         <f t="shared" si="8"/>
@@ -2492,12 +2598,13 @@
       <c r="E107" s="6">
         <v>19.79</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107" s="6"/>
+      <c r="G107" s="7">
         <f t="shared" si="6"/>
         <v>0.3828209298031961</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="5"/>
       <c r="C108" s="5">
         <f t="shared" si="8"/>
@@ -2510,12 +2617,13 @@
       <c r="E108" s="6">
         <v>19.765999999999998</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108" s="6"/>
+      <c r="G108" s="7">
         <f t="shared" si="6"/>
         <v>0.38283942122233094</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
       <c r="C109" s="5">
         <f t="shared" si="8"/>
@@ -2528,12 +2636,13 @@
       <c r="E109" s="6">
         <v>19.742999999999999</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109" s="6"/>
+      <c r="G109" s="7">
         <f t="shared" si="6"/>
         <v>0.38285711634633962</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="5"/>
       <c r="C110" s="5">
         <f t="shared" si="8"/>
@@ -2546,12 +2655,13 @@
       <c r="E110" s="6">
         <v>19.722000000000001</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="6"/>
+      <c r="G110" s="7">
         <f t="shared" si="6"/>
         <v>0.38287325071009348</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="5"/>
       <c r="C111" s="5">
         <f t="shared" si="8"/>
@@ -2564,12 +2674,13 @@
       <c r="E111" s="6">
         <v>19.702000000000002</v>
       </c>
-      <c r="F111" s="7">
+      <c r="F111" s="6"/>
+      <c r="G111" s="7">
         <f t="shared" si="6"/>
         <v>0.38288859721226087</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="5"/>
       <c r="C112" s="5">
         <f t="shared" si="8"/>
@@ -2582,12 +2693,13 @@
       <c r="E112" s="6">
         <v>19.683</v>
       </c>
-      <c r="F112" s="7">
+      <c r="F112" s="6"/>
+      <c r="G112" s="7">
         <f t="shared" si="6"/>
         <v>0.38290315872608155</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B113" s="5"/>
       <c r="C113" s="5">
         <f t="shared" si="8"/>
@@ -2600,12 +2712,13 @@
       <c r="E113" s="6">
         <v>19.666</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F113" s="6"/>
+      <c r="G113" s="7">
         <f t="shared" si="6"/>
         <v>0.38291617286918828</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B114" s="5"/>
       <c r="C114" s="5">
         <f t="shared" si="8"/>
@@ -2618,12 +2731,13 @@
       <c r="E114" s="6">
         <v>19.651</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F114" s="6"/>
+      <c r="G114" s="7">
         <f t="shared" si="6"/>
         <v>0.38292764450755551</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B115" s="5"/>
       <c r="C115" s="5">
         <f t="shared" ref="C115:D124" si="9">C114+1</f>
@@ -2636,12 +2750,13 @@
       <c r="E115" s="6">
         <v>19.638000000000002</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F115" s="6"/>
+      <c r="G115" s="7">
         <f t="shared" si="6"/>
         <v>0.38293757793112848</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B116" s="5"/>
       <c r="C116" s="5">
         <f t="shared" si="9"/>
@@ -2654,12 +2769,13 @@
       <c r="E116" s="6">
         <v>19.626999999999999</v>
       </c>
-      <c r="F116" s="7">
+      <c r="F116" s="6"/>
+      <c r="G116" s="7">
         <f t="shared" si="6"/>
         <v>0.38294597685516352</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B117" s="5"/>
       <c r="C117" s="5">
         <f t="shared" si="9"/>
@@ -2672,12 +2788,13 @@
       <c r="E117" s="6">
         <v>19.617999999999999</v>
       </c>
-      <c r="F117" s="7">
+      <c r="F117" s="6"/>
+      <c r="G117" s="7">
         <f t="shared" si="6"/>
         <v>0.38295284442138605</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B118" s="5"/>
       <c r="C118" s="5">
         <f t="shared" si="9"/>
@@ -2690,12 +2807,13 @@
       <c r="E118" s="6">
         <v>19.611000000000001</v>
       </c>
-      <c r="F118" s="7">
+      <c r="F118" s="6"/>
+      <c r="G118" s="7">
         <f t="shared" si="6"/>
         <v>0.38295818319896896</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B119" s="5"/>
       <c r="C119" s="5">
         <f t="shared" si="9"/>
@@ -2708,12 +2826,13 @@
       <c r="E119" s="6">
         <v>19.605</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F119" s="6"/>
+      <c r="G119" s="7">
         <f t="shared" si="6"/>
         <v>0.38296275744000319</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B120" s="5"/>
       <c r="C120" s="5">
         <f t="shared" si="9"/>
@@ -2726,12 +2845,13 @@
       <c r="E120" s="6">
         <v>19.602</v>
       </c>
-      <c r="F120" s="7">
+      <c r="F120" s="6"/>
+      <c r="G120" s="7">
         <f t="shared" si="6"/>
         <v>0.38296504391884451</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B121" s="5"/>
       <c r="C121" s="5">
         <f t="shared" si="9"/>
@@ -2744,12 +2864,13 @@
       <c r="E121" s="6">
         <v>19.600999999999999</v>
       </c>
-      <c r="F121" s="7">
+      <c r="F121" s="6"/>
+      <c r="G121" s="7">
         <f t="shared" si="6"/>
         <v>0.38296580598340496</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
       <c r="C122" s="5">
         <f t="shared" si="9"/>
@@ -2762,12 +2883,13 @@
       <c r="E122" s="6">
         <v>19.603000000000002</v>
       </c>
-      <c r="F122" s="7">
+      <c r="F122" s="6"/>
+      <c r="G122" s="7">
         <f t="shared" si="6"/>
         <v>0.3829642818067584</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B123" s="5"/>
       <c r="C123" s="5">
         <f t="shared" si="9"/>
@@ -2780,12 +2902,13 @@
       <c r="E123" s="6">
         <v>19.606000000000002</v>
       </c>
-      <c r="F123" s="7">
+      <c r="F123" s="6"/>
+      <c r="G123" s="7">
         <f t="shared" si="6"/>
         <v>0.38296199518533125</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B124" s="5"/>
       <c r="C124" s="5">
         <f t="shared" si="9"/>
@@ -2798,12 +2921,13 @@
       <c r="E124" s="6">
         <v>19.611999999999998</v>
       </c>
-      <c r="F124" s="7">
+      <c r="F124" s="6"/>
+      <c r="G124" s="7">
         <f t="shared" si="6"/>
         <v>0.38295742065908561</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B125" s="4" t="s">
         <v>10</v>
       </c>
@@ -2817,12 +2941,13 @@
       <c r="E125" s="6">
         <v>19.62</v>
       </c>
-      <c r="F125" s="7">
+      <c r="F125" s="6"/>
+      <c r="G125" s="7">
         <f>ACOS((400^2+2*6371*400)^0.5/((6371+400)*COS(E125/180*PI())))/PI()</f>
         <v>0.38295131862844128</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5">
@@ -2836,12 +2961,13 @@
       <c r="E126" s="6">
         <v>19.63</v>
       </c>
-      <c r="F126" s="7">
-        <f t="shared" ref="F126:F189" si="12">ACOS((400^2+2*6371*400)^0.5/((6371+400)*COS(E126/180*PI())))/PI()</f>
+      <c r="F126" s="6"/>
+      <c r="G126" s="7">
+        <f t="shared" ref="G126:G189" si="12">ACOS((400^2+2*6371*400)^0.5/((6371+400)*COS(E126/180*PI())))/PI()</f>
         <v>0.38294368681035051</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5">
@@ -2855,12 +2981,13 @@
       <c r="E127" s="6">
         <v>19.643000000000001</v>
       </c>
-      <c r="F127" s="7">
+      <c r="F127" s="6"/>
+      <c r="G127" s="7">
         <f t="shared" si="12"/>
         <v>0.38293375833535309</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5">
@@ -2874,12 +3001,13 @@
       <c r="E128" s="6">
         <v>19.658000000000001</v>
       </c>
-      <c r="F128" s="7">
+      <c r="F128" s="6"/>
+      <c r="G128" s="7">
         <f t="shared" si="12"/>
         <v>0.38292229240936471</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5">
@@ -2893,12 +3021,13 @@
       <c r="E129" s="6">
         <v>19.675000000000001</v>
       </c>
-      <c r="F129" s="7">
+      <c r="F129" s="6"/>
+      <c r="G129" s="7">
         <f t="shared" si="12"/>
         <v>0.3829092847435086</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5">
@@ -2912,12 +3041,13 @@
       <c r="E130" s="6">
         <v>19.695</v>
       </c>
-      <c r="F130" s="7">
+      <c r="F130" s="6"/>
+      <c r="G130" s="7">
         <f t="shared" si="12"/>
         <v>0.38289396398225978</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5">
@@ -2931,12 +3061,13 @@
       <c r="E131" s="6">
         <v>19.716999999999999</v>
       </c>
-      <c r="F131" s="7">
+      <c r="F131" s="6"/>
+      <c r="G131" s="7">
         <f t="shared" si="12"/>
         <v>0.38287708912404383</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5">
@@ -2950,12 +3081,13 @@
       <c r="E132" s="6">
         <v>19.742000000000001</v>
       </c>
-      <c r="F132" s="7">
+      <c r="F132" s="6"/>
+      <c r="G132" s="7">
         <f t="shared" si="12"/>
         <v>0.38285788512661167</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5">
@@ -2969,12 +3101,13 @@
       <c r="E133" s="6">
         <v>19.77</v>
       </c>
-      <c r="F133" s="7">
+      <c r="F133" s="6"/>
+      <c r="G133" s="7">
         <f t="shared" si="12"/>
         <v>0.38283634123045279</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5">
@@ -2988,12 +3121,13 @@
       <c r="E134" s="6">
         <v>19.8</v>
       </c>
-      <c r="F134" s="7">
+      <c r="F134" s="6"/>
+      <c r="G134" s="7">
         <f t="shared" si="12"/>
         <v>0.38281321691961107</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5">
@@ -3007,12 +3141,13 @@
       <c r="E135" s="6">
         <v>19.832000000000001</v>
       </c>
-      <c r="F135" s="7">
+      <c r="F135" s="6"/>
+      <c r="G135" s="7">
         <f t="shared" si="12"/>
         <v>0.38278850354995242</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5">
@@ -3026,12 +3161,13 @@
       <c r="E136" s="6">
         <v>19.867000000000001</v>
       </c>
-      <c r="F136" s="7">
+      <c r="F136" s="6"/>
+      <c r="G136" s="7">
         <f t="shared" si="12"/>
         <v>0.38276141717535256</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5">
@@ -3045,12 +3181,13 @@
       <c r="E137" s="6">
         <v>19.905000000000001</v>
       </c>
-      <c r="F137" s="7">
+      <c r="F137" s="6"/>
+      <c r="G137" s="7">
         <f t="shared" si="12"/>
         <v>0.38273194264409721</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5">
@@ -3064,12 +3201,13 @@
       <c r="E138" s="6">
         <v>19.946000000000002</v>
       </c>
-      <c r="F138" s="7">
+      <c r="F138" s="6"/>
+      <c r="G138" s="7">
         <f t="shared" si="12"/>
         <v>0.38270006347422475</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5">
@@ -3083,12 +3221,13 @@
       <c r="E139" s="6">
         <v>19.989000000000001</v>
       </c>
-      <c r="F139" s="7">
+      <c r="F139" s="6"/>
+      <c r="G139" s="7">
         <f t="shared" si="12"/>
         <v>0.38266654246185866</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5">
@@ -3102,12 +3241,13 @@
       <c r="E140" s="6">
         <v>20.035</v>
       </c>
-      <c r="F140" s="7">
+      <c r="F140" s="6"/>
+      <c r="G140" s="7">
         <f t="shared" si="12"/>
         <v>0.38263058430089619</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5">
@@ -3121,12 +3261,13 @@
       <c r="E141" s="6">
         <v>20.084</v>
       </c>
-      <c r="F141" s="7">
+      <c r="F141" s="6"/>
+      <c r="G141" s="7">
         <f t="shared" si="12"/>
         <v>0.38259216891243059</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5">
@@ -3140,12 +3281,13 @@
       <c r="E142" s="6">
         <v>20.135000000000002</v>
       </c>
-      <c r="F142" s="7">
+      <c r="F142" s="6"/>
+      <c r="G142" s="7">
         <f t="shared" si="12"/>
         <v>0.38255206251008789</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5">
@@ -3159,12 +3301,13 @@
       <c r="E143" s="6">
         <v>20.189</v>
       </c>
-      <c r="F143" s="7">
+      <c r="F143" s="6"/>
+      <c r="G143" s="7">
         <f t="shared" si="12"/>
         <v>0.38250945989416285</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5">
@@ -3178,12 +3321,13 @@
       <c r="E144" s="6">
         <v>20.245999999999999</v>
       </c>
-      <c r="F144" s="7">
+      <c r="F144" s="6"/>
+      <c r="G144" s="7">
         <f t="shared" si="12"/>
         <v>0.38246433731353413</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5">
@@ -3197,12 +3341,13 @@
       <c r="E145" s="6">
         <v>20.305</v>
       </c>
-      <c r="F145" s="7">
+      <c r="F145" s="6"/>
+      <c r="G145" s="7">
         <f t="shared" si="12"/>
         <v>0.38241746551718286</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5">
@@ -3216,12 +3361,13 @@
       <c r="E146" s="6">
         <v>20.367000000000001</v>
       </c>
-      <c r="F146" s="7">
+      <c r="F146" s="6"/>
+      <c r="G146" s="7">
         <f t="shared" si="12"/>
         <v>0.38236802813949883</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5">
@@ -3235,12 +3381,13 @@
       <c r="E147" s="6">
         <v>20.431999999999999</v>
       </c>
-      <c r="F147" s="7">
+      <c r="F147" s="6"/>
+      <c r="G147" s="7">
         <f t="shared" si="12"/>
         <v>0.38231599766641555</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5">
@@ -3254,12 +3401,13 @@
       <c r="E148" s="6">
         <v>20.5</v>
       </c>
-      <c r="F148" s="7">
+      <c r="F148" s="6"/>
+      <c r="G148" s="7">
         <f t="shared" si="12"/>
         <v>0.38226134515357124</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5">
@@ -3273,12 +3421,13 @@
       <c r="E149" s="6">
         <v>20.57</v>
       </c>
-      <c r="F149" s="7">
+      <c r="F149" s="6"/>
+      <c r="G149" s="7">
         <f t="shared" si="12"/>
         <v>0.38220484903736135</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5">
@@ -3292,12 +3441,13 @@
       <c r="E150" s="6">
         <v>20.641999999999999</v>
       </c>
-      <c r="F150" s="7">
+      <c r="F150" s="6"/>
+      <c r="G150" s="7">
         <f t="shared" si="12"/>
         <v>0.38214648821317321</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5">
@@ -3311,12 +3461,13 @@
       <c r="E151" s="6">
         <v>20.716999999999999</v>
       </c>
-      <c r="F151" s="7">
+      <c r="F151" s="6"/>
+      <c r="G151" s="7">
         <f t="shared" si="12"/>
         <v>0.38208542489076963</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5">
@@ -3330,12 +3481,13 @@
       <c r="E152" s="6">
         <v>20.794</v>
       </c>
-      <c r="F152" s="7">
+      <c r="F152" s="6"/>
+      <c r="G152" s="7">
         <f t="shared" si="12"/>
         <v>0.38202244503731636</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5">
@@ -3349,12 +3501,13 @@
       <c r="E153" s="6">
         <v>20.873999999999999</v>
       </c>
-      <c r="F153" s="7">
+      <c r="F153" s="6"/>
+      <c r="G153" s="7">
         <f t="shared" si="12"/>
         <v>0.38195670138743681</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5">
@@ -3368,12 +3521,13 @@
       <c r="E154" s="6">
         <v>20.956</v>
       </c>
-      <c r="F154" s="7">
+      <c r="F154" s="6"/>
+      <c r="G154" s="7">
         <f t="shared" si="12"/>
         <v>0.3818889853797679</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="4" t="s">
         <v>11</v>
@@ -3388,12 +3542,13 @@
       <c r="E155" s="6">
         <v>21.04</v>
       </c>
-      <c r="F155" s="7">
+      <c r="F155" s="6"/>
+      <c r="G155" s="7">
         <f t="shared" si="12"/>
         <v>0.38181927172710045</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5">
@@ -3407,12 +3562,13 @@
       <c r="E156" s="6">
         <v>21.126000000000001</v>
       </c>
-      <c r="F156" s="7">
+      <c r="F156" s="6"/>
+      <c r="G156" s="7">
         <f t="shared" si="12"/>
         <v>0.38174753440500736</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5">
@@ -3426,12 +3582,13 @@
       <c r="E157" s="6">
         <v>21.213999999999999</v>
       </c>
-      <c r="F157" s="7">
+      <c r="F157" s="6"/>
+      <c r="G157" s="7">
         <f t="shared" si="12"/>
         <v>0.38167374664199116</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5">
@@ -3445,12 +3602,13 @@
       <c r="E158" s="6">
         <v>21.305</v>
       </c>
-      <c r="F158" s="7">
+      <c r="F158" s="6"/>
+      <c r="G158" s="7">
         <f t="shared" si="12"/>
         <v>0.38159703567441672</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5">
@@ -3464,12 +3622,13 @@
       <c r="E159" s="6">
         <v>21.396999999999998</v>
       </c>
-      <c r="F159" s="7">
+      <c r="F159" s="6"/>
+      <c r="G159" s="7">
         <f t="shared" si="12"/>
         <v>0.38151905904875422</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5">
@@ -3483,12 +3642,13 @@
       <c r="E160" s="6">
         <v>21.491</v>
       </c>
-      <c r="F160" s="7">
+      <c r="F160" s="6"/>
+      <c r="G160" s="7">
         <f t="shared" si="12"/>
         <v>0.38143894696553771</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5">
@@ -3502,12 +3662,13 @@
       <c r="E161" s="6">
         <v>21.587</v>
       </c>
-      <c r="F161" s="7">
+      <c r="F161" s="6"/>
+      <c r="G161" s="7">
         <f t="shared" si="12"/>
         <v>0.38135666955759689</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5">
@@ -3521,12 +3682,13 @@
       <c r="E162" s="6">
         <v>21.684999999999999</v>
       </c>
-      <c r="F162" s="7">
+      <c r="F162" s="6"/>
+      <c r="G162" s="7">
         <f t="shared" si="12"/>
         <v>0.381272196155437</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5">
@@ -3540,12 +3702,13 @@
       <c r="E163" s="6">
         <v>21.783999999999999</v>
       </c>
-      <c r="F163" s="7">
+      <c r="F163" s="6"/>
+      <c r="G163" s="7">
         <f t="shared" si="12"/>
         <v>0.38118636480702622</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5">
@@ -3559,12 +3722,13 @@
       <c r="E164" s="6">
         <v>21.885000000000002</v>
       </c>
-      <c r="F164" s="7">
+      <c r="F164" s="6"/>
+      <c r="G164" s="7">
         <f t="shared" si="12"/>
         <v>0.38109828404659157</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5">
@@ -3578,12 +3742,13 @@
       <c r="E165" s="6">
         <v>21.986999999999998</v>
       </c>
-      <c r="F165" s="7">
+      <c r="F165" s="6"/>
+      <c r="G165" s="7">
         <f t="shared" si="12"/>
         <v>0.38100880101287271</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5">
@@ -3597,12 +3762,13 @@
       <c r="E166" s="6">
         <v>22.091000000000001</v>
       </c>
-      <c r="F166" s="7">
+      <c r="F166" s="6"/>
+      <c r="G166" s="7">
         <f t="shared" si="12"/>
         <v>0.3809170128990691</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5">
@@ -3616,12 +3782,13 @@
       <c r="E167" s="6">
         <v>22.196000000000002</v>
       </c>
-      <c r="F167" s="7">
+      <c r="F167" s="6"/>
+      <c r="G167" s="7">
         <f t="shared" si="12"/>
         <v>0.38082377628008629</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5">
@@ -3635,12 +3802,13 @@
       <c r="E168" s="6">
         <v>22.303000000000001</v>
       </c>
-      <c r="F168" s="7">
+      <c r="F168" s="6"/>
+      <c r="G168" s="7">
         <f t="shared" si="12"/>
         <v>0.38072817659253433</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5">
@@ -3654,12 +3822,13 @@
       <c r="E169" s="6">
         <v>22.411000000000001</v>
       </c>
-      <c r="F169" s="7">
+      <c r="F169" s="6"/>
+      <c r="G169" s="7">
         <f t="shared" si="12"/>
         <v>0.38063108019848418</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5">
@@ -3673,12 +3842,13 @@
       <c r="E170" s="6">
         <v>22.52</v>
       </c>
-      <c r="F170" s="7">
+      <c r="F170" s="6"/>
+      <c r="G170" s="7">
         <f t="shared" si="12"/>
         <v>0.38053246792806095</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5">
@@ -3692,12 +3862,13 @@
       <c r="E171" s="6">
         <v>22.63</v>
       </c>
-      <c r="F171" s="7">
+      <c r="F171" s="6"/>
+      <c r="G171" s="7">
         <f t="shared" si="12"/>
         <v>0.38043232030551122</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5">
@@ -3711,12 +3882,13 @@
       <c r="E172" s="6">
         <v>22.741</v>
       </c>
-      <c r="F172" s="7">
+      <c r="F172" s="6"/>
+      <c r="G172" s="7">
         <f t="shared" si="12"/>
         <v>0.38033061754417558</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5">
@@ -3730,12 +3902,13 @@
       <c r="E173" s="6">
         <v>22.853000000000002</v>
       </c>
-      <c r="F173" s="7">
+      <c r="F173" s="6"/>
+      <c r="G173" s="7">
         <f t="shared" si="12"/>
         <v>0.38022733954133192</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5">
@@ -3749,12 +3922,13 @@
       <c r="E174" s="6">
         <v>22.966000000000001</v>
       </c>
-      <c r="F174" s="7">
+      <c r="F174" s="6"/>
+      <c r="G174" s="7">
         <f t="shared" si="12"/>
         <v>0.38012246587290438</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5">
@@ -3768,12 +3942,13 @@
       <c r="E175" s="6">
         <v>23.079000000000001</v>
       </c>
-      <c r="F175" s="7">
+      <c r="F175" s="6"/>
+      <c r="G175" s="7">
         <f t="shared" si="12"/>
         <v>0.38001691292545736</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5">
@@ -3787,12 +3962,13 @@
       <c r="E176" s="6">
         <v>23.193000000000001</v>
       </c>
-      <c r="F176" s="7">
+      <c r="F176" s="6"/>
+      <c r="G176" s="7">
         <f t="shared" si="12"/>
         <v>0.37990973473600431</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5">
@@ -3806,12 +3982,13 @@
       <c r="E177" s="6">
         <v>23.306999999999999</v>
       </c>
-      <c r="F177" s="7">
+      <c r="F177" s="6"/>
+      <c r="G177" s="7">
         <f t="shared" si="12"/>
         <v>0.37980185948835049</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5">
@@ -3825,12 +4002,13 @@
       <c r="E178" s="6">
         <v>23.422000000000001</v>
       </c>
-      <c r="F178" s="7">
+      <c r="F178" s="6"/>
+      <c r="G178" s="7">
         <f t="shared" si="12"/>
         <v>0.37969232876058312</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5">
@@ -3844,12 +4022,13 @@
       <c r="E179" s="6">
         <v>23.536999999999999</v>
       </c>
-      <c r="F179" s="7">
+      <c r="F179" s="6"/>
+      <c r="G179" s="7">
         <f t="shared" si="12"/>
         <v>0.37958208273272381</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5">
@@ -3863,12 +4042,13 @@
       <c r="E180" s="6">
         <v>23.652000000000001</v>
       </c>
-      <c r="F180" s="7">
+      <c r="F180" s="6"/>
+      <c r="G180" s="7">
         <f t="shared" si="12"/>
         <v>0.37947111837215997</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5">
@@ -3882,12 +4062,13 @@
       <c r="E181" s="6">
         <v>23.766999999999999</v>
       </c>
-      <c r="F181" s="7">
+      <c r="F181" s="6"/>
+      <c r="G181" s="7">
         <f t="shared" si="12"/>
         <v>0.37935943261919713</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5">
@@ -3901,12 +4082,13 @@
       <c r="E182" s="6">
         <v>23.882000000000001</v>
       </c>
-      <c r="F182" s="7">
+      <c r="F182" s="6"/>
+      <c r="G182" s="7">
         <f t="shared" si="12"/>
         <v>0.37924702238682073</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5">
@@ -3920,12 +4102,13 @@
       <c r="E183" s="6">
         <v>23.995999999999999</v>
       </c>
-      <c r="F183" s="7">
+      <c r="F183" s="6"/>
+      <c r="G183" s="7">
         <f t="shared" si="12"/>
         <v>0.37913487151255493</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5">
@@ -3939,12 +4122,13 @@
       <c r="E184" s="6">
         <v>24.11</v>
       </c>
-      <c r="F184" s="7">
+      <c r="F184" s="6"/>
+      <c r="G184" s="7">
         <f t="shared" si="12"/>
         <v>0.37902200258213448</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5">
@@ -3958,12 +4142,13 @@
       <c r="E185" s="6">
         <v>24.224</v>
       </c>
-      <c r="F185" s="7">
+      <c r="F185" s="6"/>
+      <c r="G185" s="7">
         <f t="shared" si="12"/>
         <v>0.37890841250747576</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>2020</v>
       </c>
@@ -3980,12 +4165,13 @@
       <c r="E186" s="6">
         <v>24.337</v>
       </c>
-      <c r="F186" s="7">
+      <c r="F186" s="6"/>
+      <c r="G186" s="7">
         <f t="shared" si="12"/>
         <v>0.37879510408824918</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5">
@@ -3999,12 +4185,13 @@
       <c r="E187" s="6">
         <v>24.448</v>
       </c>
-      <c r="F187" s="7">
+      <c r="F187" s="6"/>
+      <c r="G187" s="7">
         <f t="shared" si="12"/>
         <v>0.37868310533716421</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5">
@@ -4018,12 +4205,13 @@
       <c r="E188" s="6">
         <v>24.559000000000001</v>
       </c>
-      <c r="F188" s="7">
+      <c r="F188" s="6"/>
+      <c r="G188" s="7">
         <f t="shared" si="12"/>
         <v>0.37857041406399811</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5">
@@ -4037,12 +4225,13 @@
       <c r="E189" s="6">
         <v>24.669</v>
       </c>
-      <c r="F189" s="7">
+      <c r="F189" s="6"/>
+      <c r="G189" s="7">
         <f t="shared" si="12"/>
         <v>0.37845805193267396</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5">
@@ -4056,12 +4245,13 @@
       <c r="E190" s="6">
         <v>24.777999999999999</v>
       </c>
-      <c r="F190" s="7">
-        <f t="shared" ref="F190:F216" si="19">ACOS((400^2+2*6371*400)^0.5/((6371+400)*COS(E190/180*PI())))/PI()</f>
+      <c r="F190" s="6"/>
+      <c r="G190" s="7">
+        <f t="shared" ref="G190:G216" si="19">ACOS((400^2+2*6371*400)^0.5/((6371+400)*COS(E190/180*PI())))/PI()</f>
         <v>0.37834603471247369</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5">
@@ -4075,12 +4265,13 @@
       <c r="E191" s="6">
         <v>24.885000000000002</v>
       </c>
-      <c r="F191" s="7">
+      <c r="F191" s="6"/>
+      <c r="G191" s="7">
         <f t="shared" si="19"/>
         <v>0.37823541504673119</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5">
@@ -4094,12 +4285,13 @@
       <c r="E192" s="6">
         <v>24.991</v>
       </c>
-      <c r="F192" s="7">
+      <c r="F192" s="6"/>
+      <c r="G192" s="7">
         <f t="shared" si="19"/>
         <v>0.37812518391873884</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5">
@@ -4113,12 +4305,13 @@
       <c r="E193" s="6">
         <v>25.094999999999999</v>
       </c>
-      <c r="F193" s="7">
+      <c r="F193" s="6"/>
+      <c r="G193" s="7">
         <f t="shared" si="19"/>
         <v>0.37801640584962026</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5">
@@ -4132,12 +4325,13 @@
       <c r="E194" s="6">
         <v>25.198</v>
       </c>
-      <c r="F194" s="7">
+      <c r="F194" s="6"/>
+      <c r="G194" s="7">
         <f t="shared" si="19"/>
         <v>0.37790805934165905</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5">
@@ -4151,12 +4345,13 @@
       <c r="E195" s="6">
         <v>25.298999999999999</v>
       </c>
-      <c r="F195" s="7">
+      <c r="F195" s="6"/>
+      <c r="G195" s="7">
         <f t="shared" si="19"/>
         <v>0.37780122052959419</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5">
@@ -4170,12 +4365,13 @@
       <c r="E196" s="6">
         <v>25.398</v>
       </c>
-      <c r="F196" s="7">
+      <c r="F196" s="6"/>
+      <c r="G196" s="7">
         <f t="shared" si="19"/>
         <v>0.37769592219349152</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5">
@@ -4189,12 +4385,13 @@
       <c r="E197" s="6">
         <v>25.495000000000001</v>
       </c>
-      <c r="F197" s="7">
+      <c r="F197" s="6"/>
+      <c r="G197" s="7">
         <f t="shared" si="19"/>
         <v>0.37759219667390781</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5">
@@ -4208,12 +4405,13 @@
       <c r="E198" s="6">
         <v>25.59</v>
       </c>
-      <c r="F198" s="7">
+      <c r="F198" s="6"/>
+      <c r="G198" s="7">
         <f t="shared" si="19"/>
         <v>0.37749007586153221</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5">
@@ -4227,12 +4425,13 @@
       <c r="E199" s="6">
         <v>25.683</v>
       </c>
-      <c r="F199" s="7">
+      <c r="F199" s="6"/>
+      <c r="G199" s="7">
         <f t="shared" si="19"/>
         <v>0.37738959118683463</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5">
@@ -4246,12 +4445,13 @@
       <c r="E200" s="6">
         <v>25.773</v>
       </c>
-      <c r="F200" s="7">
+      <c r="F200" s="6"/>
+      <c r="G200" s="7">
         <f t="shared" si="19"/>
         <v>0.37729186217821498</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5">
@@ -4265,12 +4465,13 @@
       <c r="E201" s="6">
         <v>25.861999999999998</v>
       </c>
-      <c r="F201" s="7">
+      <c r="F201" s="6"/>
+      <c r="G201" s="7">
         <f t="shared" si="19"/>
         <v>0.37719474745653914</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5">
@@ -4284,12 +4485,13 @@
       <c r="E202" s="6">
         <v>25.948</v>
       </c>
-      <c r="F202" s="7">
+      <c r="F202" s="6"/>
+      <c r="G202" s="7">
         <f t="shared" si="19"/>
         <v>0.37710045916531038</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5">
@@ -4303,12 +4505,13 @@
       <c r="E203" s="6">
         <v>26.030999999999999</v>
       </c>
-      <c r="F203" s="7">
+      <c r="F203" s="6"/>
+      <c r="G203" s="7">
         <f t="shared" si="19"/>
         <v>0.37700904184118061</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5">
@@ -4322,12 +4525,13 @@
       <c r="E204" s="6">
         <v>26.111999999999998</v>
       </c>
-      <c r="F204" s="7">
+      <c r="F204" s="6"/>
+      <c r="G204" s="7">
         <f t="shared" si="19"/>
         <v>0.37691942999433486</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5">
@@ -4341,12 +4545,13 @@
       <c r="E205" s="6">
         <v>26.19</v>
       </c>
-      <c r="F205" s="7">
+      <c r="F205" s="6"/>
+      <c r="G205" s="7">
         <f t="shared" si="19"/>
         <v>0.37683276491849943</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5">
@@ -4360,12 +4565,13 @@
       <c r="E206" s="6">
         <v>26.265000000000001</v>
       </c>
-      <c r="F206" s="7">
+      <c r="F206" s="6"/>
+      <c r="G206" s="7">
         <f t="shared" si="19"/>
         <v>0.3767490876508392</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5">
@@ -4379,12 +4585,13 @@
       <c r="E207" s="6">
         <v>26.338000000000001</v>
       </c>
-      <c r="F207" s="7">
+      <c r="F207" s="6"/>
+      <c r="G207" s="7">
         <f t="shared" si="19"/>
         <v>0.37666731551037419</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5">
@@ -4398,12 +4605,13 @@
       <c r="E208" s="6">
         <v>26.407</v>
       </c>
-      <c r="F208" s="7">
+      <c r="F208" s="6"/>
+      <c r="G208" s="7">
         <f t="shared" si="19"/>
         <v>0.37658972726946255</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5">
@@ -4417,12 +4625,13 @@
       <c r="E209" s="6">
         <v>26.472999999999999</v>
       </c>
-      <c r="F209" s="7">
+      <c r="F209" s="6"/>
+      <c r="G209" s="7">
         <f t="shared" si="19"/>
         <v>0.37651524179038531</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5">
@@ -4436,12 +4645,13 @@
       <c r="E210" s="6">
         <v>26.536000000000001</v>
       </c>
-      <c r="F210" s="7">
+      <c r="F210" s="6"/>
+      <c r="G210" s="7">
         <f t="shared" si="19"/>
         <v>0.37644389448605725</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5">
@@ -4455,12 +4665,13 @@
       <c r="E211" s="6">
         <v>26.594999999999999</v>
       </c>
-      <c r="F211" s="7">
+      <c r="F211" s="6"/>
+      <c r="G211" s="7">
         <f t="shared" si="19"/>
         <v>0.37637685736726151</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5">
@@ -4474,12 +4685,13 @@
       <c r="E212" s="6">
         <v>26.651</v>
       </c>
-      <c r="F212" s="7">
+      <c r="F212" s="6"/>
+      <c r="G212" s="7">
         <f t="shared" si="19"/>
         <v>0.37631303177648079</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5">
@@ -4493,12 +4705,13 @@
       <c r="E213" s="6">
         <v>26.704000000000001</v>
       </c>
-      <c r="F213" s="7">
+      <c r="F213" s="6"/>
+      <c r="G213" s="7">
         <f t="shared" si="19"/>
         <v>0.37625244815889181</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5">
@@ -4512,12 +4725,13 @@
       <c r="E214" s="6">
         <v>26.753</v>
       </c>
-      <c r="F214" s="7">
+      <c r="F214" s="6"/>
+      <c r="G214" s="7">
         <f t="shared" si="19"/>
         <v>0.37619628320073312</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B215" s="5"/>
       <c r="C215" s="5">
         <f t="shared" si="20"/>
@@ -4530,12 +4744,13 @@
       <c r="E215" s="6">
         <v>26.797999999999998</v>
       </c>
-      <c r="F215" s="7">
+      <c r="F215" s="6"/>
+      <c r="G215" s="7">
         <f t="shared" si="19"/>
         <v>0.37614457279841645</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B216" s="5"/>
       <c r="C216" s="5">
         <f t="shared" si="20"/>
@@ -4548,12 +4763,13 @@
       <c r="E216" s="6">
         <v>20.216999999999999</v>
       </c>
-      <c r="F216" s="7">
+      <c r="F216" s="6"/>
+      <c r="G216" s="7">
         <f t="shared" si="19"/>
         <v>0.38248731408854042</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B217" s="4" t="s">
         <v>13</v>
       </c>
@@ -4567,12 +4783,13 @@
       <c r="E217" s="6">
         <v>26.876999999999999</v>
       </c>
-      <c r="F217" s="7">
+      <c r="F217" s="6"/>
+      <c r="G217" s="7">
         <f>ACOS((400^2+2*6371*400)^0.5/((6371+400)*COS(E217/180*PI())))/PI()</f>
         <v>0.37605348974346736</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B218" s="5"/>
       <c r="C218" s="5">
         <f t="shared" ref="C218:D233" si="22">C217+1</f>
@@ -4585,12 +4802,13 @@
       <c r="E218" s="6">
         <v>26.911000000000001</v>
       </c>
-      <c r="F218" s="7">
-        <f t="shared" ref="F218:F281" si="23">ACOS((400^2+2*6371*400)^0.5/((6371+400)*COS(E218/180*PI())))/PI()</f>
+      <c r="F218" s="6"/>
+      <c r="G218" s="7">
+        <f t="shared" ref="G218:G281" si="23">ACOS((400^2+2*6371*400)^0.5/((6371+400)*COS(E218/180*PI())))/PI()</f>
         <v>0.37601417051116132</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B219" s="5"/>
       <c r="C219" s="5">
         <f t="shared" si="22"/>
@@ -4603,12 +4821,13 @@
       <c r="E219" s="6">
         <v>26.94</v>
       </c>
-      <c r="F219" s="7">
+      <c r="F219" s="6"/>
+      <c r="G219" s="7">
         <f t="shared" si="23"/>
         <v>0.37598057685139652</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B220" s="5"/>
       <c r="C220" s="5">
         <f t="shared" si="22"/>
@@ -4621,12 +4840,13 @@
       <c r="E220" s="6">
         <v>26.966000000000001</v>
       </c>
-      <c r="F220" s="7">
+      <c r="F220" s="6"/>
+      <c r="G220" s="7">
         <f t="shared" si="23"/>
         <v>0.37595041398871082</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B221" s="5"/>
       <c r="C221" s="5">
         <f t="shared" si="22"/>
@@ -4639,12 +4859,13 @@
       <c r="E221" s="6">
         <v>26.988</v>
       </c>
-      <c r="F221" s="7">
+      <c r="F221" s="6"/>
+      <c r="G221" s="7">
         <f t="shared" si="23"/>
         <v>0.37592485873666232</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B222" s="5"/>
       <c r="C222" s="5">
         <f t="shared" si="22"/>
@@ -4657,12 +4878,13 @@
       <c r="E222" s="6">
         <v>27.004999999999999</v>
       </c>
-      <c r="F222" s="7">
+      <c r="F222" s="6"/>
+      <c r="G222" s="7">
         <f t="shared" si="23"/>
         <v>0.3759050908657911</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B223" s="5"/>
       <c r="C223" s="5">
         <f t="shared" si="22"/>
@@ -4675,18 +4897,19 @@
       <c r="E223" s="6">
         <v>27.018999999999998</v>
       </c>
-      <c r="F223" s="7">
+      <c r="F223" s="6"/>
+      <c r="G223" s="7">
         <f t="shared" si="23"/>
         <v>0.37588879792785251</v>
       </c>
-      <c r="G223" t="s">
+      <c r="H223" t="s">
         <v>18</v>
       </c>
-      <c r="H223" t="s">
+      <c r="I223" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B224" s="5"/>
       <c r="C224" s="5">
         <f t="shared" si="22"/>
@@ -4699,20 +4922,21 @@
       <c r="E224" s="6">
         <v>27.027999999999999</v>
       </c>
-      <c r="F224" s="7">
+      <c r="F224" s="6"/>
+      <c r="G224" s="7">
         <f t="shared" si="23"/>
         <v>0.37587831744667183</v>
       </c>
-      <c r="G224">
+      <c r="H224">
         <f>MAX(E223:E229)</f>
         <v>27.035</v>
       </c>
-      <c r="H224">
+      <c r="I224">
         <f>MIN(E223:E229)</f>
         <v>27.013999999999999</v>
       </c>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B225" s="5"/>
       <c r="C225" s="5">
         <f t="shared" si="22"/>
@@ -4725,20 +4949,21 @@
       <c r="E225" s="6">
         <v>27.033999999999999</v>
       </c>
-      <c r="F225" s="7">
+      <c r="F225" s="6"/>
+      <c r="G225" s="7">
         <f t="shared" si="23"/>
         <v>0.37587132765388154</v>
       </c>
-      <c r="G225" s="8">
-        <f>MIN(F223:F229)</f>
+      <c r="H225" s="8">
+        <f>MIN(G223:G229)</f>
         <v>0.37587016247017463</v>
       </c>
-      <c r="H225" s="8">
-        <f>MIN(F223:F229)</f>
+      <c r="I225" s="8">
+        <f>MIN(G223:G229)</f>
         <v>0.37587016247017463</v>
       </c>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B226" s="5"/>
       <c r="C226" s="5">
         <f t="shared" si="22"/>
@@ -4751,12 +4976,13 @@
       <c r="E226" s="6">
         <v>27.035</v>
       </c>
-      <c r="F226" s="7">
+      <c r="F226" s="6"/>
+      <c r="G226" s="7">
         <f t="shared" si="23"/>
         <v>0.37587016247017463</v>
       </c>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B227" s="5"/>
       <c r="C227" s="5">
         <f t="shared" si="22"/>
@@ -4769,12 +4995,13 @@
       <c r="E227" s="6">
         <v>27.032</v>
       </c>
-      <c r="F227" s="7">
+      <c r="F227" s="6"/>
+      <c r="G227" s="7">
         <f t="shared" si="23"/>
         <v>0.37587365783422033</v>
       </c>
     </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B228" s="5"/>
       <c r="C228" s="5">
         <f t="shared" si="22"/>
@@ -4787,12 +5014,13 @@
       <c r="E228" s="6">
         <v>27.024999999999999</v>
       </c>
-      <c r="F228" s="7">
+      <c r="F228" s="6"/>
+      <c r="G228" s="7">
         <f t="shared" si="23"/>
         <v>0.3758818115013951</v>
       </c>
     </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B229" s="5"/>
       <c r="C229" s="5">
         <f t="shared" si="22"/>
@@ -4805,12 +5033,13 @@
       <c r="E229" s="6">
         <v>27.013999999999999</v>
       </c>
-      <c r="F229" s="7">
+      <c r="F229" s="6"/>
+      <c r="G229" s="7">
         <f t="shared" si="23"/>
         <v>0.37589461823608139</v>
       </c>
     </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B230" s="5"/>
       <c r="C230" s="5">
         <f t="shared" si="22"/>
@@ -4823,12 +5052,13 @@
       <c r="E230" s="6">
         <v>26.998000000000001</v>
       </c>
-      <c r="F230" s="7">
+      <c r="F230" s="6"/>
+      <c r="G230" s="7">
         <f t="shared" si="23"/>
         <v>0.37591323275650185</v>
       </c>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B231" s="5"/>
       <c r="C231" s="5">
         <f t="shared" si="22"/>
@@ -4841,12 +5071,13 @@
       <c r="E231" s="6">
         <v>26.978999999999999</v>
       </c>
-      <c r="F231" s="7">
+      <c r="F231" s="6"/>
+      <c r="G231" s="7">
         <f t="shared" si="23"/>
         <v>0.37593531679733189</v>
       </c>
     </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B232" s="5"/>
       <c r="C232" s="5">
         <f t="shared" si="22"/>
@@ -4859,12 +5090,13 @@
       <c r="E232" s="6">
         <v>26.956</v>
       </c>
-      <c r="F232" s="7">
+      <c r="F232" s="6"/>
+      <c r="G232" s="7">
         <f t="shared" si="23"/>
         <v>0.37596202006172375</v>
       </c>
     </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B233" s="5"/>
       <c r="C233" s="5">
         <f t="shared" si="22"/>
@@ -4877,12 +5109,13 @@
       <c r="E233" s="6">
         <v>26.928000000000001</v>
       </c>
-      <c r="F233" s="7">
+      <c r="F233" s="6"/>
+      <c r="G233" s="7">
         <f t="shared" si="23"/>
         <v>0.37599448400804425</v>
       </c>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B234" s="5"/>
       <c r="C234" s="5">
         <f t="shared" ref="C234:D249" si="24">C233+1</f>
@@ -4895,12 +5128,13 @@
       <c r="E234" s="6">
         <v>26.896999999999998</v>
       </c>
-      <c r="F234" s="7">
+      <c r="F234" s="6"/>
+      <c r="G234" s="7">
         <f t="shared" si="23"/>
         <v>0.3760303694627446</v>
       </c>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B235" s="5"/>
       <c r="C235" s="5">
         <f t="shared" si="24"/>
@@ -4913,12 +5147,13 @@
       <c r="E235" s="6">
         <v>26.861000000000001</v>
       </c>
-      <c r="F235" s="7">
+      <c r="F235" s="6"/>
+      <c r="G235" s="7">
         <f t="shared" si="23"/>
         <v>0.37607196812562366</v>
       </c>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B236" s="5"/>
       <c r="C236" s="5">
         <f t="shared" si="24"/>
@@ -4931,12 +5166,13 @@
       <c r="E236" s="6">
         <v>26.821999999999999</v>
       </c>
-      <c r="F236" s="7">
+      <c r="F236" s="6"/>
+      <c r="G236" s="7">
         <f t="shared" si="23"/>
         <v>0.37611694280718277</v>
       </c>
     </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B237" s="5"/>
       <c r="C237" s="5">
         <f t="shared" si="24"/>
@@ -4949,12 +5185,13 @@
       <c r="E237" s="6">
         <v>26.777999999999999</v>
       </c>
-      <c r="F237" s="7">
+      <c r="F237" s="6"/>
+      <c r="G237" s="7">
         <f t="shared" si="23"/>
         <v>0.37616757062176248</v>
       </c>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B238" s="5"/>
       <c r="C238" s="5">
         <f t="shared" si="24"/>
@@ -4967,12 +5204,13 @@
       <c r="E238" s="6">
         <v>26.731000000000002</v>
       </c>
-      <c r="F238" s="7">
+      <c r="F238" s="6"/>
+      <c r="G238" s="7">
         <f t="shared" si="23"/>
         <v>0.37622151840657064</v>
       </c>
     </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B239" s="5"/>
       <c r="C239" s="5">
         <f t="shared" si="24"/>
@@ -4985,12 +5223,13 @@
       <c r="E239" s="6">
         <v>26.678999999999998</v>
       </c>
-      <c r="F239" s="7">
+      <c r="F239" s="6"/>
+      <c r="G239" s="7">
         <f t="shared" si="23"/>
         <v>0.37628104683999453</v>
       </c>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B240" s="5"/>
       <c r="C240" s="5">
         <f t="shared" si="24"/>
@@ -5003,12 +5242,13 @@
       <c r="E240" s="6">
         <v>26.623999999999999</v>
       </c>
-      <c r="F240" s="7">
+      <c r="F240" s="6"/>
+      <c r="G240" s="7">
         <f t="shared" si="23"/>
         <v>0.37634382882726264</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B241" s="5"/>
       <c r="C241" s="5">
         <f t="shared" si="24"/>
@@ -5021,12 +5261,13 @@
       <c r="E241" s="6">
         <v>26.564</v>
       </c>
-      <c r="F241" s="7">
+      <c r="F241" s="6"/>
+      <c r="G241" s="7">
         <f t="shared" si="23"/>
         <v>0.37641210679918152</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B242" s="5"/>
       <c r="C242" s="5">
         <f t="shared" si="24"/>
@@ -5039,12 +5280,13 @@
       <c r="E242" s="6">
         <v>26.501000000000001</v>
       </c>
-      <c r="F242" s="7">
+      <c r="F242" s="6"/>
+      <c r="G242" s="7">
         <f t="shared" si="23"/>
         <v>0.37648356176440628</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B243" s="5"/>
       <c r="C243" s="5">
         <f t="shared" si="24"/>
@@ -5057,12 +5299,13 @@
       <c r="E243" s="6">
         <v>26.434000000000001</v>
       </c>
-      <c r="F243" s="7">
+      <c r="F243" s="6"/>
+      <c r="G243" s="7">
         <f t="shared" si="23"/>
         <v>0.37655928796399118</v>
       </c>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B244" s="5"/>
       <c r="C244" s="5">
         <f t="shared" si="24"/>
@@ -5075,12 +5318,13 @@
       <c r="E244" s="6">
         <v>26.363</v>
       </c>
-      <c r="F244" s="7">
+      <c r="F244" s="6"/>
+      <c r="G244" s="7">
         <f t="shared" si="23"/>
         <v>0.37663923719083098</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B245" s="5"/>
       <c r="C245" s="5">
         <f t="shared" si="24"/>
@@ -5093,12 +5337,13 @@
       <c r="E245" s="6">
         <v>26.289000000000001</v>
       </c>
-      <c r="F245" s="7">
+      <c r="F245" s="6"/>
+      <c r="G245" s="7">
         <f t="shared" si="23"/>
         <v>0.37672223922112763</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B246" s="4" t="s">
         <v>14</v>
       </c>
@@ -5112,12 +5357,13 @@
       <c r="E246" s="6">
         <v>26.210999999999999</v>
       </c>
-      <c r="F246" s="7">
+      <c r="F246" s="6"/>
+      <c r="G246" s="7">
         <f t="shared" si="23"/>
         <v>0.37680936946955507</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B247" s="5"/>
       <c r="C247" s="5">
         <f t="shared" si="24"/>
@@ -5130,12 +5376,13 @@
       <c r="E247" s="6">
         <v>26.129000000000001</v>
       </c>
-      <c r="F247" s="7">
+      <c r="F247" s="6"/>
+      <c r="G247" s="7">
         <f t="shared" si="23"/>
         <v>0.37690057261413867</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B248" s="5"/>
       <c r="C248" s="5">
         <f t="shared" si="24"/>
@@ -5148,12 +5395,13 @@
       <c r="E248" s="6">
         <v>26.044</v>
       </c>
-      <c r="F248" s="7">
+      <c r="F248" s="6"/>
+      <c r="G248" s="7">
         <f t="shared" si="23"/>
         <v>0.37699468616941378</v>
       </c>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B249" s="5"/>
       <c r="C249" s="5">
         <f t="shared" si="24"/>
@@ -5166,12 +5414,13 @@
       <c r="E249" s="6">
         <v>25.956</v>
       </c>
-      <c r="F249" s="7">
+      <c r="F249" s="6"/>
+      <c r="G249" s="7">
         <f t="shared" si="23"/>
         <v>0.37709166576626868</v>
       </c>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B250" s="5"/>
       <c r="C250" s="5">
         <f t="shared" ref="C250:D265" si="26">C249+1</f>
@@ -5184,12 +5433,13 @@
       <c r="E250" s="6">
         <v>25.864000000000001</v>
       </c>
-      <c r="F250" s="7">
+      <c r="F250" s="6"/>
+      <c r="G250" s="7">
         <f t="shared" si="23"/>
         <v>0.37719255970256704</v>
       </c>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B251" s="5"/>
       <c r="C251" s="5">
         <f t="shared" si="26"/>
@@ -5202,12 +5452,13 @@
       <c r="E251" s="6">
         <v>25.768000000000001</v>
       </c>
-      <c r="F251" s="7">
+      <c r="F251" s="6"/>
+      <c r="G251" s="7">
         <f t="shared" si="23"/>
         <v>0.37729730413262036</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B252" s="5"/>
       <c r="C252" s="5">
         <f t="shared" si="26"/>
@@ -5220,12 +5471,13 @@
       <c r="E252" s="6">
         <v>25.67</v>
       </c>
-      <c r="F252" s="7">
+      <c r="F252" s="6"/>
+      <c r="G252" s="7">
         <f t="shared" si="23"/>
         <v>0.37740366806380443</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B253" s="5"/>
       <c r="C253" s="5">
         <f t="shared" si="26"/>
@@ -5238,12 +5490,13 @@
       <c r="E253" s="6">
         <v>25.568999999999999</v>
       </c>
-      <c r="F253" s="7">
+      <c r="F253" s="6"/>
+      <c r="G253" s="7">
         <f t="shared" si="23"/>
         <v>0.37751269553146305</v>
       </c>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B254" s="5"/>
       <c r="C254" s="5">
         <f t="shared" si="26"/>
@@ -5256,12 +5509,13 @@
       <c r="E254" s="6">
         <v>25.463999999999999</v>
       </c>
-      <c r="F254" s="7">
+      <c r="F254" s="6"/>
+      <c r="G254" s="7">
         <f t="shared" si="23"/>
         <v>0.37762540586193227</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B255" s="5"/>
       <c r="C255" s="5">
         <f t="shared" si="26"/>
@@ -5274,12 +5528,13 @@
       <c r="E255" s="6">
         <v>25.356999999999999</v>
       </c>
-      <c r="F255" s="7">
+      <c r="F255" s="6"/>
+      <c r="G255" s="7">
         <f t="shared" si="23"/>
         <v>0.3777395998154871</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B256" s="5"/>
       <c r="C256" s="5">
         <f t="shared" si="26"/>
@@ -5292,12 +5547,13 @@
       <c r="E256" s="6">
         <v>25.247</v>
       </c>
-      <c r="F256" s="7">
+      <c r="F256" s="6"/>
+      <c r="G256" s="7">
         <f t="shared" si="23"/>
         <v>0.37785630051712565</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B257" s="5"/>
       <c r="C257" s="5">
         <f t="shared" si="26"/>
@@ -5310,12 +5566,13 @@
       <c r="E257" s="6">
         <v>25.134</v>
       </c>
-      <c r="F257" s="7">
+      <c r="F257" s="6"/>
+      <c r="G257" s="7">
         <f t="shared" si="23"/>
         <v>0.37797545350244122</v>
       </c>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B258" s="5"/>
       <c r="C258" s="5">
         <f t="shared" si="26"/>
@@ -5328,12 +5585,13 @@
       <c r="E258" s="6">
         <v>25.018999999999998</v>
       </c>
-      <c r="F258" s="7">
+      <c r="F258" s="6"/>
+      <c r="G258" s="7">
         <f t="shared" si="23"/>
         <v>0.3780959586923382</v>
       </c>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B259" s="5"/>
       <c r="C259" s="5">
         <f t="shared" si="26"/>
@@ -5346,12 +5604,13 @@
       <c r="E259" s="6">
         <v>24.902000000000001</v>
       </c>
-      <c r="F259" s="7">
+      <c r="F259" s="6"/>
+      <c r="G259" s="7">
         <f t="shared" si="23"/>
         <v>0.37821777978144755</v>
       </c>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B260" s="5"/>
       <c r="C260" s="5">
         <f t="shared" si="26"/>
@@ -5364,12 +5623,13 @@
       <c r="E260" s="6">
         <v>24.782</v>
       </c>
-      <c r="F260" s="7">
+      <c r="F260" s="6"/>
+      <c r="G260" s="7">
         <f t="shared" si="23"/>
         <v>0.37834191114120314</v>
       </c>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B261" s="5"/>
       <c r="C261" s="5">
         <f t="shared" si="26"/>
@@ -5382,12 +5642,13 @@
       <c r="E261" s="6">
         <v>24.661000000000001</v>
       </c>
-      <c r="F261" s="7">
+      <c r="F261" s="6"/>
+      <c r="G261" s="7">
         <f t="shared" si="23"/>
         <v>0.37846624681671065</v>
       </c>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B262" s="5"/>
       <c r="C262" s="5">
         <f t="shared" si="26"/>
@@ -5400,12 +5661,13 @@
       <c r="E262" s="6">
         <v>24.536999999999999</v>
       </c>
-      <c r="F262" s="7">
+      <c r="F262" s="6"/>
+      <c r="G262" s="7">
         <f t="shared" si="23"/>
         <v>0.37859280443809573</v>
       </c>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B263" s="5"/>
       <c r="C263" s="5">
         <f t="shared" si="26"/>
@@ -5418,12 +5680,13 @@
       <c r="E263" s="6">
         <v>24.411000000000001</v>
       </c>
-      <c r="F263" s="7">
+      <c r="F263" s="6"/>
+      <c r="G263" s="7">
         <f t="shared" si="23"/>
         <v>0.37872051505605869</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B264" s="5"/>
       <c r="C264" s="5">
         <f t="shared" si="26"/>
@@ -5436,12 +5699,13 @@
       <c r="E264" s="6">
         <v>24.283999999999999</v>
       </c>
-      <c r="F264" s="7">
+      <c r="F264" s="6"/>
+      <c r="G264" s="7">
         <f t="shared" si="23"/>
         <v>0.37884833754872205</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B265" s="5"/>
       <c r="C265" s="5">
         <f t="shared" si="26"/>
@@ -5454,12 +5718,13 @@
       <c r="E265" s="6">
         <v>24.155000000000001</v>
       </c>
-      <c r="F265" s="7">
+      <c r="F265" s="6"/>
+      <c r="G265" s="7">
         <f t="shared" si="23"/>
         <v>0.37897725071495314</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B266" s="5"/>
       <c r="C266" s="5">
         <f t="shared" ref="C266:D281" si="27">C265+1</f>
@@ -5472,12 +5737,13 @@
       <c r="E266" s="6">
         <v>24.024000000000001</v>
       </c>
-      <c r="F266" s="7">
+      <c r="F266" s="6"/>
+      <c r="G266" s="7">
         <f t="shared" si="23"/>
         <v>0.37910721596096197</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B267" s="5"/>
       <c r="C267" s="5">
         <f t="shared" si="27"/>
@@ -5490,12 +5756,13 @@
       <c r="E267" s="6">
         <v>23.891999999999999</v>
       </c>
-      <c r="F267" s="7">
+      <c r="F267" s="6"/>
+      <c r="G267" s="7">
         <f t="shared" si="23"/>
         <v>0.37923721324366161</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B268" s="5"/>
       <c r="C268" s="5">
         <f t="shared" si="27"/>
@@ -5508,12 +5775,13 @@
       <c r="E268" s="6">
         <v>23.757999999999999</v>
       </c>
-      <c r="F268" s="7">
+      <c r="F268" s="6"/>
+      <c r="G268" s="7">
         <f t="shared" si="23"/>
         <v>0.37936819933371407</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B269" s="5"/>
       <c r="C269" s="5">
         <f t="shared" si="27"/>
@@ -5526,12 +5794,13 @@
       <c r="E269" s="6">
         <v>23.623000000000001</v>
       </c>
-      <c r="F269" s="7">
+      <c r="F269" s="6"/>
+      <c r="G269" s="7">
         <f t="shared" si="23"/>
         <v>0.37949916858917943</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B270" s="5"/>
       <c r="C270" s="5">
         <f t="shared" si="27"/>
@@ -5544,12 +5813,13 @@
       <c r="E270" s="6">
         <v>23.486999999999998</v>
       </c>
-      <c r="F270" s="7">
+      <c r="F270" s="6"/>
+      <c r="G270" s="7">
         <f t="shared" si="23"/>
         <v>0.37963010387342461</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B271" s="5"/>
       <c r="C271" s="5">
         <f t="shared" si="27"/>
@@ -5562,12 +5832,13 @@
       <c r="E271" s="6">
         <v>23.35</v>
       </c>
-      <c r="F271" s="7">
+      <c r="F271" s="6"/>
+      <c r="G271" s="7">
         <f t="shared" si="23"/>
         <v>0.37976098805591268</v>
       </c>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B272" s="5"/>
       <c r="C272" s="5">
         <f t="shared" si="27"/>
@@ -5580,12 +5851,13 @@
       <c r="E272" s="6">
         <v>23.212</v>
       </c>
-      <c r="F272" s="7">
+      <c r="F272" s="6"/>
+      <c r="G272" s="7">
         <f t="shared" si="23"/>
         <v>0.37989180401294276</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B273" s="5"/>
       <c r="C273" s="5">
         <f t="shared" si="27"/>
@@ -5598,12 +5870,13 @@
       <c r="E273" s="6">
         <v>23.074000000000002</v>
       </c>
-      <c r="F273" s="7">
+      <c r="F273" s="6"/>
+      <c r="G273" s="7">
         <f t="shared" si="23"/>
         <v>0.38002159781138123</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B274" s="5"/>
       <c r="C274" s="5">
         <f t="shared" si="27"/>
@@ -5616,12 +5889,13 @@
       <c r="E274" s="6">
         <v>22.934000000000001</v>
       </c>
-      <c r="F274" s="7">
+      <c r="F274" s="6"/>
+      <c r="G274" s="7">
         <f t="shared" si="23"/>
         <v>0.38015223343487592</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B275" s="5"/>
       <c r="C275" s="5">
         <f t="shared" si="27"/>
@@ -5634,12 +5908,13 @@
       <c r="E275" s="6">
         <v>22.794</v>
       </c>
-      <c r="F275" s="7">
+      <c r="F275" s="6"/>
+      <c r="G275" s="7">
         <f t="shared" si="23"/>
         <v>0.38028182758593959</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B276" s="5"/>
       <c r="C276" s="5">
         <f t="shared" si="27"/>
@@ -5652,12 +5927,13 @@
       <c r="E276" s="6">
         <v>22.654</v>
       </c>
-      <c r="F276" s="7">
+      <c r="F276" s="6"/>
+      <c r="G276" s="7">
         <f t="shared" si="23"/>
         <v>0.3804103854816791</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B277" s="4" t="s">
         <v>15</v>
       </c>
@@ -5671,12 +5947,13 @@
       <c r="E277" s="6">
         <v>22.513000000000002</v>
       </c>
-      <c r="F277" s="7">
+      <c r="F277" s="6"/>
+      <c r="G277" s="7">
         <f t="shared" si="23"/>
         <v>0.38053881949220392</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B278" s="5"/>
       <c r="C278" s="5">
         <f t="shared" si="27"/>
@@ -5689,12 +5966,13 @@
       <c r="E278" s="6">
         <v>22.370999999999999</v>
       </c>
-      <c r="F278" s="7">
+      <c r="F278" s="6"/>
+      <c r="G278" s="7">
         <f t="shared" si="23"/>
         <v>0.38066711263563618</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B279" s="5"/>
       <c r="C279" s="5">
         <f t="shared" si="27"/>
@@ -5707,12 +5985,13 @@
       <c r="E279" s="6">
         <v>22.23</v>
       </c>
-      <c r="F279" s="7">
+      <c r="F279" s="6"/>
+      <c r="G279" s="7">
         <f t="shared" si="23"/>
         <v>0.38079346315508683</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B280" s="5"/>
       <c r="C280" s="5">
         <f t="shared" si="27"/>
@@ -5725,12 +6004,13 @@
       <c r="E280" s="6">
         <v>22.088999999999999</v>
       </c>
-      <c r="F280" s="7">
+      <c r="F280" s="6"/>
+      <c r="G280" s="7">
         <f t="shared" si="23"/>
         <v>0.38091878330942991</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B281" s="5"/>
       <c r="C281" s="5">
         <f t="shared" si="27"/>
@@ -5743,12 +6023,13 @@
       <c r="E281" s="6">
         <v>21.948</v>
       </c>
-      <c r="F281" s="7">
+      <c r="F281" s="6"/>
+      <c r="G281" s="7">
         <f t="shared" si="23"/>
         <v>0.38104307814509752</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B282" s="5"/>
       <c r="C282" s="5">
         <f t="shared" ref="C282:D297" si="29">C281+1</f>
@@ -5761,12 +6042,13 @@
       <c r="E282" s="6">
         <v>21.806999999999999</v>
       </c>
-      <c r="F282" s="7">
-        <f t="shared" ref="F282:F306" si="30">ACOS((400^2+2*6371*400)^0.5/((6371+400)*COS(E282/180*PI())))/PI()</f>
+      <c r="F282" s="6"/>
+      <c r="G282" s="7">
+        <f t="shared" ref="G282:G306" si="30">ACOS((400^2+2*6371*400)^0.5/((6371+400)*COS(E282/180*PI())))/PI()</f>
         <v>0.3811663526535608</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B283" s="5"/>
       <c r="C283" s="5">
         <f t="shared" si="29"/>
@@ -5779,12 +6061,13 @@
       <c r="E283" s="6">
         <v>21.666</v>
       </c>
-      <c r="F283" s="7">
+      <c r="F283" s="6"/>
+      <c r="G283" s="7">
         <f t="shared" si="30"/>
         <v>0.38128861177188778</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B284" s="5"/>
       <c r="C284" s="5">
         <f t="shared" si="29"/>
@@ -5797,12 +6080,13 @@
       <c r="E284" s="6">
         <v>21.526</v>
       </c>
-      <c r="F284" s="7">
+      <c r="F284" s="6"/>
+      <c r="G284" s="7">
         <f t="shared" si="30"/>
         <v>0.38140900401067995</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B285" s="5"/>
       <c r="C285" s="5">
         <f t="shared" si="29"/>
@@ -5815,12 +6099,13 @@
       <c r="E285" s="6">
         <v>21.385999999999999</v>
       </c>
-      <c r="F285" s="7">
+      <c r="F285" s="6"/>
+      <c r="G285" s="7">
         <f t="shared" si="30"/>
         <v>0.38152840475326838</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B286" s="5"/>
       <c r="C286" s="5">
         <f t="shared" si="29"/>
@@ -5833,12 +6118,13 @@
       <c r="E286" s="6">
         <v>21.247</v>
       </c>
-      <c r="F286" s="7">
+      <c r="F286" s="6"/>
+      <c r="G286" s="7">
         <f t="shared" si="30"/>
         <v>0.38164597635092384</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B287" s="5"/>
       <c r="C287" s="5">
         <f t="shared" si="29"/>
@@ -5851,12 +6137,13 @@
       <c r="E287" s="6">
         <v>21.11</v>
       </c>
-      <c r="F287" s="7">
+      <c r="F287" s="6"/>
+      <c r="G287" s="7">
         <f t="shared" si="30"/>
         <v>0.38176090880237323</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B288" s="5"/>
       <c r="C288" s="5">
         <f t="shared" si="29"/>
@@ -5869,12 +6156,13 @@
       <c r="E288" s="6">
         <v>20.972999999999999</v>
       </c>
-      <c r="F288" s="7">
+      <c r="F288" s="6"/>
+      <c r="G288" s="7">
         <f t="shared" si="30"/>
         <v>0.38187490496064763</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B289" s="5"/>
       <c r="C289" s="5">
         <f t="shared" si="29"/>
@@ -5887,12 +6175,13 @@
       <c r="E289" s="6">
         <v>20.837</v>
       </c>
-      <c r="F289" s="7">
+      <c r="F289" s="6"/>
+      <c r="G289" s="7">
         <f t="shared" si="30"/>
         <v>0.38198714714990983</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B290" s="5"/>
       <c r="C290" s="5">
         <f t="shared" si="29"/>
@@ -5905,12 +6194,13 @@
       <c r="E290" s="6">
         <v>20.702999999999999</v>
       </c>
-      <c r="F290" s="7">
+      <c r="F290" s="6"/>
+      <c r="G290" s="7">
         <f t="shared" si="30"/>
         <v>0.38209684438396785</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B291" s="5"/>
       <c r="C291" s="5">
         <f t="shared" si="29"/>
@@ -5923,12 +6213,13 @@
       <c r="E291" s="6">
         <v>20.568999999999999</v>
       </c>
-      <c r="F291" s="7">
+      <c r="F291" s="6"/>
+      <c r="G291" s="7">
         <f t="shared" si="30"/>
         <v>0.38220565781420601</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B292" s="5"/>
       <c r="C292" s="5">
         <f t="shared" si="29"/>
@@ -5941,12 +6232,13 @@
       <c r="E292" s="6">
         <v>20.437999999999999</v>
       </c>
-      <c r="F292" s="7">
+      <c r="F292" s="6"/>
+      <c r="G292" s="7">
         <f t="shared" si="30"/>
         <v>0.38231118446793916</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B293" s="5"/>
       <c r="C293" s="5">
         <f t="shared" si="29"/>
@@ -5959,12 +6251,13 @@
       <c r="E293" s="6">
         <v>20.308</v>
       </c>
-      <c r="F293" s="7">
+      <c r="F293" s="6"/>
+      <c r="G293" s="7">
         <f t="shared" si="30"/>
         <v>0.38241507768927052</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B294" s="5"/>
       <c r="C294" s="5">
         <f t="shared" si="29"/>
@@ -5977,12 +6270,13 @@
       <c r="E294" s="6">
         <v>20.178999999999998</v>
       </c>
-      <c r="F294" s="7">
+      <c r="F294" s="6"/>
+      <c r="G294" s="7">
         <f t="shared" si="30"/>
         <v>0.38251735991063446</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B295" s="5"/>
       <c r="C295" s="5">
         <f t="shared" si="29"/>
@@ -5995,12 +6289,13 @@
       <c r="E295" s="6">
         <v>20.052</v>
       </c>
-      <c r="F295" s="7">
+      <c r="F295" s="6"/>
+      <c r="G295" s="7">
         <f t="shared" si="30"/>
         <v>0.38261726962569298</v>
       </c>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B296" s="5"/>
       <c r="C296" s="5">
         <f t="shared" si="29"/>
@@ -6013,12 +6308,13 @@
       <c r="E296" s="6">
         <v>19.927</v>
       </c>
-      <c r="F296" s="7">
+      <c r="F296" s="6"/>
+      <c r="G296" s="7">
         <f t="shared" si="30"/>
         <v>0.38271484678198331</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B297" s="5"/>
       <c r="C297" s="5">
         <f t="shared" si="29"/>
@@ -6031,12 +6327,13 @@
       <c r="E297" s="6">
         <v>19.803999999999998</v>
       </c>
-      <c r="F297" s="7">
+      <c r="F297" s="6"/>
+      <c r="G297" s="7">
         <f t="shared" si="30"/>
         <v>0.38281013042731049</v>
       </c>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B298" s="5"/>
       <c r="C298" s="5">
         <f t="shared" ref="C298:D306" si="31">C297+1</f>
@@ -6049,12 +6346,13 @@
       <c r="E298" s="6">
         <v>19.683</v>
       </c>
-      <c r="F298" s="7">
+      <c r="F298" s="6"/>
+      <c r="G298" s="7">
         <f t="shared" si="30"/>
         <v>0.38290315872608155</v>
       </c>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B299" s="5"/>
       <c r="C299" s="5">
         <f t="shared" si="31"/>
@@ -6067,12 +6365,13 @@
       <c r="E299" s="6">
         <v>19.564</v>
       </c>
-      <c r="F299" s="7">
+      <c r="F299" s="6"/>
+      <c r="G299" s="7">
         <f t="shared" si="30"/>
         <v>0.38299396897506527</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B300" s="5"/>
       <c r="C300" s="5">
         <f t="shared" si="31"/>
@@ -6085,12 +6384,13 @@
       <c r="E300" s="6">
         <v>19.446999999999999</v>
       </c>
-      <c r="F300" s="7">
+      <c r="F300" s="6"/>
+      <c r="G300" s="7">
         <f t="shared" si="30"/>
         <v>0.38308259761860081</v>
       </c>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B301" s="5"/>
       <c r="C301" s="5">
         <f t="shared" si="31"/>
@@ -6103,12 +6403,13 @@
       <c r="E301" s="6">
         <v>19.332000000000001</v>
       </c>
-      <c r="F301" s="7">
+      <c r="F301" s="6"/>
+      <c r="G301" s="7">
         <f t="shared" si="30"/>
         <v>0.3831690802632709</v>
       </c>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B302" s="5"/>
       <c r="C302" s="5">
         <f t="shared" si="31"/>
@@ -6121,12 +6422,13 @@
       <c r="E302" s="6">
         <v>19.219000000000001</v>
       </c>
-      <c r="F302" s="7">
+      <c r="F302" s="6"/>
+      <c r="G302" s="7">
         <f t="shared" si="30"/>
         <v>0.38325345169205938</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B303" s="5"/>
       <c r="C303" s="5">
         <f t="shared" si="31"/>
@@ -6139,12 +6441,13 @@
       <c r="E303" s="6">
         <v>19.109000000000002</v>
       </c>
-      <c r="F303" s="7">
+      <c r="F303" s="6"/>
+      <c r="G303" s="7">
         <f t="shared" si="30"/>
         <v>0.38333500706652168</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B304" s="5"/>
       <c r="C304" s="5">
         <f t="shared" si="31"/>
@@ -6157,12 +6460,13 @@
       <c r="E304" s="6">
         <v>19.001000000000001</v>
       </c>
-      <c r="F304" s="7">
+      <c r="F304" s="6"/>
+      <c r="G304" s="7">
         <f t="shared" si="30"/>
         <v>0.38341452851615521</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B305" s="5"/>
       <c r="C305" s="5">
         <f t="shared" si="31"/>
@@ -6175,12 +6479,13 @@
       <c r="E305" s="6">
         <v>18.895</v>
       </c>
-      <c r="F305" s="7">
+      <c r="F305" s="6"/>
+      <c r="G305" s="7">
         <f t="shared" si="30"/>
         <v>0.38349204810453957</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B306" s="5"/>
       <c r="C306" s="5">
         <f t="shared" si="31"/>
@@ -6193,12 +6498,13 @@
       <c r="E306" s="6">
         <v>18.792000000000002</v>
       </c>
-      <c r="F306" s="7">
+      <c r="F306" s="6"/>
+      <c r="G306" s="7">
         <f t="shared" si="30"/>
         <v>0.38356687308514315</v>
       </c>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B307" s="4" t="s">
         <v>16</v>
       </c>
@@ -6212,12 +6518,13 @@
       <c r="E307" s="6">
         <v>18.692</v>
       </c>
-      <c r="F307" s="7">
+      <c r="F307" s="6"/>
+      <c r="G307" s="7">
         <f>ACOS((400^2+2*6371*400)^0.5/((6371+400)*COS(E307/180*PI())))/PI()</f>
         <v>0.38363904802668719</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B308" s="5"/>
       <c r="C308" s="5">
         <f t="shared" ref="C308:D323" si="33">C307+1</f>
@@ -6230,12 +6537,13 @@
       <c r="E308" s="6">
         <v>18.594000000000001</v>
       </c>
-      <c r="F308" s="7">
-        <f t="shared" ref="F308:F371" si="34">ACOS((400^2+2*6371*400)^0.5/((6371+400)*COS(E308/180*PI())))/PI()</f>
+      <c r="F308" s="6"/>
+      <c r="G308" s="7">
+        <f t="shared" ref="G308:G371" si="34">ACOS((400^2+2*6371*400)^0.5/((6371+400)*COS(E308/180*PI())))/PI()</f>
         <v>0.38370933091219683</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B309" s="5"/>
       <c r="C309" s="5">
         <f t="shared" si="33"/>
@@ -6248,12 +6556,13 @@
       <c r="E309" s="6">
         <v>18.498999999999999</v>
       </c>
-      <c r="F309" s="7">
+      <c r="F309" s="6"/>
+      <c r="G309" s="7">
         <f t="shared" si="34"/>
         <v>0.38377703965728355</v>
       </c>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B310" s="5"/>
       <c r="C310" s="5">
         <f t="shared" si="33"/>
@@ -6266,12 +6575,13 @@
       <c r="E310" s="6">
         <v>18.405999999999999</v>
       </c>
-      <c r="F310" s="7">
+      <c r="F310" s="6"/>
+      <c r="G310" s="7">
         <f t="shared" si="34"/>
         <v>0.38384292107575113</v>
       </c>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B311" s="5"/>
       <c r="C311" s="5">
         <f t="shared" si="33"/>
@@ -6284,12 +6594,13 @@
       <c r="E311" s="6">
         <v>18.317</v>
       </c>
-      <c r="F311" s="7">
+      <c r="F311" s="6"/>
+      <c r="G311" s="7">
         <f t="shared" si="34"/>
         <v>0.38390559756987946</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B312" s="5"/>
       <c r="C312" s="5">
         <f t="shared" si="33"/>
@@ -6302,12 +6613,13 @@
       <c r="E312" s="6">
         <v>18.23</v>
       </c>
-      <c r="F312" s="7">
+      <c r="F312" s="6"/>
+      <c r="G312" s="7">
         <f t="shared" si="34"/>
         <v>0.38396651551457422</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B313" s="5"/>
       <c r="C313" s="5">
         <f t="shared" si="33"/>
@@ -6320,12 +6632,13 @@
       <c r="E313" s="6">
         <v>18.146000000000001</v>
       </c>
-      <c r="F313" s="7">
+      <c r="F313" s="6"/>
+      <c r="G313" s="7">
         <f t="shared" si="34"/>
         <v>0.38402500525084815</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B314" s="5"/>
       <c r="C314" s="5">
         <f t="shared" si="33"/>
@@ -6338,12 +6651,13 @@
       <c r="E314" s="6">
         <v>18.065000000000001</v>
       </c>
-      <c r="F314" s="7">
+      <c r="F314" s="6"/>
+      <c r="G314" s="7">
         <f t="shared" si="34"/>
         <v>0.38408110200022638</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B315" s="5"/>
       <c r="C315" s="5">
         <f t="shared" si="33"/>
@@ -6356,12 +6670,13 @@
       <c r="E315" s="6">
         <v>17.986999999999998</v>
       </c>
-      <c r="F315" s="7">
+      <c r="F315" s="6"/>
+      <c r="G315" s="7">
         <f t="shared" si="34"/>
         <v>0.38413483959005346</v>
       </c>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B316" s="5"/>
       <c r="C316" s="5">
         <f t="shared" si="33"/>
@@ -6374,12 +6689,13 @@
       <c r="E316" s="6">
         <v>17.911999999999999</v>
       </c>
-      <c r="F316" s="7">
+      <c r="F316" s="6"/>
+      <c r="G316" s="7">
         <f t="shared" si="34"/>
         <v>0.38418625046950106</v>
       </c>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B317" s="5"/>
       <c r="C317" s="5">
         <f t="shared" si="33"/>
@@ -6392,12 +6708,13 @@
       <c r="E317" s="6">
         <v>17.841000000000001</v>
       </c>
-      <c r="F317" s="7">
+      <c r="F317" s="6"/>
+      <c r="G317" s="7">
         <f t="shared" si="34"/>
         <v>0.38423468517076004</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B318" s="5"/>
       <c r="C318" s="5">
         <f t="shared" si="33"/>
@@ -6410,12 +6727,13 @@
       <c r="E318" s="6">
         <v>17.771999999999998</v>
       </c>
-      <c r="F318" s="7">
+      <c r="F318" s="6"/>
+      <c r="G318" s="7">
         <f t="shared" si="34"/>
         <v>0.38428153764869383</v>
       </c>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B319" s="5"/>
       <c r="C319" s="5">
         <f t="shared" si="33"/>
@@ -6428,12 +6746,13 @@
       <c r="E319" s="6">
         <v>17.707000000000001</v>
       </c>
-      <c r="F319" s="7">
+      <c r="F319" s="6"/>
+      <c r="G319" s="7">
         <f t="shared" si="34"/>
         <v>0.38432547798060401</v>
       </c>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B320" s="5"/>
       <c r="C320" s="5">
         <f t="shared" si="33"/>
@@ -6446,12 +6765,13 @@
       <c r="E320" s="6">
         <v>17.645</v>
       </c>
-      <c r="F320" s="7">
+      <c r="F320" s="6"/>
+      <c r="G320" s="7">
         <f t="shared" si="34"/>
         <v>0.38436721338126595</v>
       </c>
     </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B321" s="5"/>
       <c r="C321" s="5">
         <f t="shared" si="33"/>
@@ -6464,12 +6784,13 @@
       <c r="E321" s="6">
         <v>17.587</v>
       </c>
-      <c r="F321" s="7">
+      <c r="F321" s="6"/>
+      <c r="G321" s="7">
         <f t="shared" si="34"/>
         <v>0.38440610006635523</v>
       </c>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B322" s="5"/>
       <c r="C322" s="5">
         <f t="shared" si="33"/>
@@ -6482,12 +6803,13 @@
       <c r="E322" s="6">
         <v>17.530999999999999</v>
       </c>
-      <c r="F322" s="7">
+      <c r="F322" s="6"/>
+      <c r="G322" s="7">
         <f t="shared" si="34"/>
         <v>0.38444350287667134</v>
       </c>
     </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B323" s="5"/>
       <c r="C323" s="5">
         <f t="shared" si="33"/>
@@ -6500,12 +6822,13 @@
       <c r="E323" s="6">
         <v>17.478999999999999</v>
       </c>
-      <c r="F323" s="7">
+      <c r="F323" s="6"/>
+      <c r="G323" s="7">
         <f t="shared" si="34"/>
         <v>0.38447810849479008</v>
       </c>
     </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B324" s="5"/>
       <c r="C324" s="5">
         <f t="shared" ref="C324:D339" si="35">C323+1</f>
@@ -6518,12 +6841,13 @@
       <c r="E324" s="6">
         <v>17.43</v>
       </c>
-      <c r="F324" s="7">
+      <c r="F324" s="6"/>
+      <c r="G324" s="7">
         <f t="shared" si="34"/>
         <v>0.38451060714599317</v>
       </c>
     </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B325" s="5"/>
       <c r="C325" s="5">
         <f t="shared" si="35"/>
@@ -6536,12 +6860,13 @@
       <c r="E325" s="6">
         <v>17.385000000000002</v>
       </c>
-      <c r="F325" s="7">
+      <c r="F325" s="6"/>
+      <c r="G325" s="7">
         <f t="shared" si="34"/>
         <v>0.38454035853669888</v>
       </c>
     </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B326" s="5"/>
       <c r="C326" s="5">
         <f t="shared" si="35"/>
@@ -6554,12 +6879,13 @@
       <c r="E326" s="6">
         <v>17.341999999999999</v>
       </c>
-      <c r="F326" s="7">
+      <c r="F326" s="6"/>
+      <c r="G326" s="7">
         <f t="shared" si="34"/>
         <v>0.38456870338435861</v>
       </c>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B327" s="5"/>
       <c r="C327" s="5">
         <f t="shared" si="35"/>
@@ -6572,12 +6898,13 @@
       <c r="E327" s="6">
         <v>17.303000000000001</v>
       </c>
-      <c r="F327" s="7">
+      <c r="F327" s="6"/>
+      <c r="G327" s="7">
         <f t="shared" si="34"/>
         <v>0.38459434037479606</v>
       </c>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B328" s="5"/>
       <c r="C328" s="5">
         <f t="shared" si="35"/>
@@ -6590,12 +6917,13 @@
       <c r="E328" s="6">
         <v>17.268000000000001</v>
       </c>
-      <c r="F328" s="7">
+      <c r="F328" s="6"/>
+      <c r="G328" s="7">
         <f t="shared" si="34"/>
         <v>0.38461729038762887</v>
       </c>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B329" s="5"/>
       <c r="C329" s="5">
         <f t="shared" si="35"/>
@@ -6608,12 +6936,13 @@
       <c r="E329" s="6">
         <v>17.234999999999999</v>
       </c>
-      <c r="F329" s="7">
+      <c r="F329" s="6"/>
+      <c r="G329" s="7">
         <f t="shared" si="34"/>
         <v>0.38463887916453288</v>
       </c>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B330" s="5"/>
       <c r="C330" s="5">
         <f t="shared" si="35"/>
@@ -6626,12 +6955,13 @@
       <c r="E330" s="6">
         <v>17.206</v>
       </c>
-      <c r="F330" s="7">
+      <c r="F330" s="6"/>
+      <c r="G330" s="7">
         <f t="shared" si="34"/>
         <v>0.38465781124796278</v>
       </c>
     </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B331" s="5"/>
       <c r="C331" s="5">
         <f t="shared" si="35"/>
@@ -6644,12 +6974,13 @@
       <c r="E331" s="6">
         <v>17.18</v>
       </c>
-      <c r="F331" s="7">
+      <c r="F331" s="6"/>
+      <c r="G331" s="7">
         <f t="shared" si="34"/>
         <v>0.38467475315414296</v>
       </c>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B332" s="5"/>
       <c r="C332" s="5">
         <f t="shared" si="35"/>
@@ -6662,12 +6993,13 @@
       <c r="E332" s="6">
         <v>17.158000000000001</v>
       </c>
-      <c r="F332" s="7">
+      <c r="F332" s="6"/>
+      <c r="G332" s="7">
         <f t="shared" si="34"/>
         <v>0.38468906523086155</v>
       </c>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B333" s="5"/>
       <c r="C333" s="5">
         <f t="shared" si="35"/>
@@ -6680,12 +7012,13 @@
       <c r="E333" s="6">
         <v>17.138000000000002</v>
       </c>
-      <c r="F333" s="7">
+      <c r="F333" s="6"/>
+      <c r="G333" s="7">
         <f t="shared" si="34"/>
         <v>0.38470205762161441</v>
       </c>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B334" s="5"/>
       <c r="C334" s="5">
         <f t="shared" si="35"/>
@@ -6698,12 +7031,13 @@
       <c r="E334" s="6">
         <v>17.122</v>
       </c>
-      <c r="F334" s="7">
+      <c r="F334" s="6"/>
+      <c r="G334" s="7">
         <f t="shared" si="34"/>
         <v>0.38471243879482925</v>
       </c>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B335" s="5"/>
       <c r="C335" s="5">
         <f t="shared" si="35"/>
@@ -6716,12 +7050,13 @@
       <c r="E335" s="6">
         <v>17.108000000000001</v>
       </c>
-      <c r="F335" s="7">
+      <c r="F335" s="6"/>
+      <c r="G335" s="7">
         <f t="shared" si="34"/>
         <v>0.38472151303647711</v>
       </c>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B336" s="5"/>
       <c r="C336" s="5">
         <f t="shared" si="35"/>
@@ -6734,12 +7069,13 @@
       <c r="E336" s="6">
         <v>17.097999999999999</v>
       </c>
-      <c r="F336" s="7">
+      <c r="F336" s="6"/>
+      <c r="G336" s="7">
         <f t="shared" si="34"/>
         <v>0.38472798933391594</v>
       </c>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B337" s="5"/>
       <c r="C337" s="5">
         <f t="shared" si="35"/>
@@ -6752,12 +7088,13 @@
       <c r="E337" s="6">
         <v>17.091000000000001</v>
       </c>
-      <c r="F337" s="7">
+      <c r="F337" s="6"/>
+      <c r="G337" s="7">
         <f t="shared" si="34"/>
         <v>0.38473252011309278</v>
       </c>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B338" s="4" t="s">
         <v>17</v>
       </c>
@@ -6771,12 +7108,13 @@
       <c r="E338" s="6">
         <v>17.087</v>
       </c>
-      <c r="F338" s="7">
+      <c r="F338" s="6"/>
+      <c r="G338" s="7">
         <f t="shared" si="34"/>
         <v>0.3847351081578721</v>
       </c>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B339" s="5"/>
       <c r="C339" s="5">
         <f t="shared" si="35"/>
@@ -6789,12 +7127,13 @@
       <c r="E339" s="6">
         <v>17.085000000000001</v>
       </c>
-      <c r="F339" s="7">
+      <c r="F339" s="6"/>
+      <c r="G339" s="7">
         <f t="shared" si="34"/>
         <v>0.38473640191523117</v>
       </c>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B340" s="5"/>
       <c r="C340" s="5">
         <f t="shared" ref="C340:D355" si="37">C339+1</f>
@@ -6807,12 +7146,13 @@
       <c r="E340" s="6">
         <v>17.087</v>
       </c>
-      <c r="F340" s="7">
+      <c r="F340" s="6"/>
+      <c r="G340" s="7">
         <f t="shared" si="34"/>
         <v>0.3847351081578721</v>
       </c>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B341" s="5"/>
       <c r="C341" s="5">
         <f t="shared" si="37"/>
@@ -6825,12 +7165,13 @@
       <c r="E341" s="6">
         <v>17.091999999999999</v>
       </c>
-      <c r="F341" s="7">
+      <c r="F341" s="6"/>
+      <c r="G341" s="7">
         <f t="shared" si="34"/>
         <v>0.3847318729914615</v>
       </c>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B342" s="5"/>
       <c r="C342" s="5">
         <f t="shared" si="37"/>
@@ -6843,12 +7184,13 @@
       <c r="E342" s="6">
         <v>17.099</v>
       </c>
-      <c r="F342" s="7">
+      <c r="F342" s="6"/>
+      <c r="G342" s="7">
         <f t="shared" si="34"/>
         <v>0.38472734190302066</v>
       </c>
     </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B343" s="5"/>
       <c r="C343" s="5">
         <f t="shared" si="37"/>
@@ -6861,12 +7203,13 @@
       <c r="E343" s="6">
         <v>17.11</v>
       </c>
-      <c r="F343" s="7">
+      <c r="F343" s="6"/>
+      <c r="G343" s="7">
         <f t="shared" si="34"/>
         <v>0.38472021724667327</v>
       </c>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B344" s="5"/>
       <c r="C344" s="5">
         <f t="shared" si="37"/>
@@ -6879,12 +7222,13 @@
       <c r="E344" s="6">
         <v>17.123000000000001</v>
       </c>
-      <c r="F344" s="7">
+      <c r="F344" s="6"/>
+      <c r="G344" s="7">
         <f t="shared" si="34"/>
         <v>0.38471179030315261</v>
       </c>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B345" s="5"/>
       <c r="C345" s="5">
         <f t="shared" si="37"/>
@@ -6897,12 +7241,13 @@
       <c r="E345" s="6">
         <v>17.138999999999999</v>
       </c>
-      <c r="F345" s="7">
+      <c r="F345" s="6"/>
+      <c r="G345" s="7">
         <f t="shared" si="34"/>
         <v>0.38470140842236455</v>
       </c>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B346" s="5"/>
       <c r="C346" s="5">
         <f t="shared" si="37"/>
@@ -6915,12 +7260,13 @@
       <c r="E346" s="6">
         <v>17.158000000000001</v>
       </c>
-      <c r="F346" s="7">
+      <c r="F346" s="6"/>
+      <c r="G346" s="7">
         <f t="shared" si="34"/>
         <v>0.38468906523086155</v>
       </c>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B347" s="5"/>
       <c r="C347" s="5">
         <f t="shared" si="37"/>
@@ -6933,12 +7279,13 @@
       <c r="E347" s="6">
         <v>17.178999999999998</v>
       </c>
-      <c r="F347" s="7">
+      <c r="F347" s="6"/>
+      <c r="G347" s="7">
         <f t="shared" si="34"/>
         <v>0.38467540416796031</v>
       </c>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B348" s="5"/>
       <c r="C348" s="5">
         <f t="shared" si="37"/>
@@ -6951,12 +7298,13 @@
       <c r="E348" s="6">
         <v>17.202999999999999</v>
       </c>
-      <c r="F348" s="7">
+      <c r="F348" s="6"/>
+      <c r="G348" s="7">
         <f t="shared" si="34"/>
         <v>0.38465976761174275</v>
       </c>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B349" s="5"/>
       <c r="C349" s="5">
         <f t="shared" si="37"/>
@@ -6969,12 +7317,13 @@
       <c r="E349" s="6">
         <v>17.23</v>
       </c>
-      <c r="F349" s="7">
+      <c r="F349" s="6"/>
+      <c r="G349" s="7">
         <f t="shared" si="34"/>
         <v>0.38464214597701601</v>
       </c>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B350" s="5"/>
       <c r="C350" s="5">
         <f t="shared" si="37"/>
@@ -6987,12 +7336,13 @@
       <c r="E350" s="6">
         <v>17.259</v>
       </c>
-      <c r="F350" s="7">
+      <c r="F350" s="6"/>
+      <c r="G350" s="7">
         <f t="shared" si="34"/>
         <v>0.38462318302816401</v>
       </c>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B351" s="5"/>
       <c r="C351" s="5">
         <f t="shared" si="37"/>
@@ -7005,12 +7355,13 @@
       <c r="E351" s="6">
         <v>17.291</v>
       </c>
-      <c r="F351" s="7">
+      <c r="F351" s="6"/>
+      <c r="G351" s="7">
         <f t="shared" si="34"/>
         <v>0.38460221507971687</v>
       </c>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B352" s="5"/>
       <c r="C352" s="5">
         <f t="shared" si="37"/>
@@ -7023,12 +7374,13 @@
       <c r="E352" s="6">
         <v>17.326000000000001</v>
       </c>
-      <c r="F352" s="7">
+      <c r="F352" s="6"/>
+      <c r="G352" s="7">
         <f t="shared" si="34"/>
         <v>0.38457922930432925</v>
       </c>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B353" s="5"/>
       <c r="C353" s="5">
         <f t="shared" si="37"/>
@@ -7041,12 +7393,13 @@
       <c r="E353" s="6">
         <v>17.361999999999998</v>
       </c>
-      <c r="F353" s="7">
+      <c r="F353" s="6"/>
+      <c r="G353" s="7">
         <f t="shared" si="34"/>
         <v>0.38455552997076925</v>
       </c>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B354" s="5"/>
       <c r="C354" s="5">
         <f t="shared" si="37"/>
@@ -7059,12 +7412,13 @@
       <c r="E354" s="6">
         <v>17.401</v>
       </c>
-      <c r="F354" s="7">
+      <c r="F354" s="6"/>
+      <c r="G354" s="7">
         <f t="shared" si="34"/>
         <v>0.38452979060204218</v>
       </c>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B355" s="5"/>
       <c r="C355" s="5">
         <f t="shared" si="37"/>
@@ -7077,12 +7431,13 @@
       <c r="E355" s="6">
         <v>17.442</v>
       </c>
-      <c r="F355" s="7">
+      <c r="F355" s="6"/>
+      <c r="G355" s="7">
         <f t="shared" si="34"/>
         <v>0.3845026581969942</v>
       </c>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B356" s="5"/>
       <c r="C356" s="5">
         <f t="shared" ref="C356:D371" si="38">C355+1</f>
@@ -7095,12 +7450,13 @@
       <c r="E356" s="6">
         <v>17.486000000000001</v>
       </c>
-      <c r="F356" s="7">
+      <c r="F356" s="6"/>
+      <c r="G356" s="7">
         <f t="shared" si="34"/>
         <v>0.38447345708238284</v>
       </c>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B357" s="5"/>
       <c r="C357" s="5">
         <f t="shared" si="38"/>
@@ -7113,12 +7469,13 @@
       <c r="E357" s="6">
         <v>17.530999999999999</v>
       </c>
-      <c r="F357" s="7">
+      <c r="F357" s="6"/>
+      <c r="G357" s="7">
         <f t="shared" si="34"/>
         <v>0.38444350287667134</v>
       </c>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B358" s="5"/>
       <c r="C358" s="5">
         <f t="shared" si="38"/>
@@ -7131,12 +7488,13 @@
       <c r="E358" s="6">
         <v>17.577999999999999</v>
       </c>
-      <c r="F358" s="7">
+      <c r="F358" s="6"/>
+      <c r="G358" s="7">
         <f t="shared" si="34"/>
         <v>0.38441212069846992</v>
       </c>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B359" s="5"/>
       <c r="C359" s="5">
         <f t="shared" si="38"/>
@@ -7149,12 +7507,13 @@
       <c r="E359" s="6">
         <v>17.626999999999999</v>
       </c>
-      <c r="F359" s="7">
+      <c r="F359" s="6"/>
+      <c r="G359" s="7">
         <f t="shared" si="34"/>
         <v>0.38437929779998392</v>
       </c>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B360" s="5"/>
       <c r="C360" s="5">
         <f t="shared" si="38"/>
@@ -7167,12 +7526,13 @@
       <c r="E360" s="6">
         <v>17.678000000000001</v>
       </c>
-      <c r="F360" s="7">
+      <c r="F360" s="6"/>
+      <c r="G360" s="7">
         <f t="shared" si="34"/>
         <v>0.38434502086096395</v>
       </c>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B361" s="5"/>
       <c r="C361" s="5">
         <f t="shared" si="38"/>
@@ -7185,12 +7545,13 @@
       <c r="E361" s="6">
         <v>17.731000000000002</v>
       </c>
-      <c r="F361" s="7">
+      <c r="F361" s="6"/>
+      <c r="G361" s="7">
         <f t="shared" si="34"/>
         <v>0.38430927598477427</v>
       </c>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B362" s="5"/>
       <c r="C362" s="5">
         <f t="shared" si="38"/>
@@ -7203,12 +7564,13 @@
       <c r="E362" s="6">
         <v>17.785</v>
       </c>
-      <c r="F362" s="7">
+      <c r="F362" s="6"/>
+      <c r="G362" s="7">
         <f t="shared" si="34"/>
         <v>0.38427272676941338</v>
       </c>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B363" s="5"/>
       <c r="C363" s="5">
         <f t="shared" si="38"/>
@@ -7221,12 +7583,13 @@
       <c r="E363" s="6">
         <v>17.841000000000001</v>
       </c>
-      <c r="F363" s="7">
+      <c r="F363" s="6"/>
+      <c r="G363" s="7">
         <f t="shared" si="34"/>
         <v>0.38423468517076004</v>
       </c>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B364" s="5"/>
       <c r="C364" s="5">
         <f t="shared" si="38"/>
@@ -7239,12 +7602,13 @@
       <c r="E364" s="6">
         <v>17.898</v>
       </c>
-      <c r="F364" s="7">
+      <c r="F364" s="6"/>
+      <c r="G364" s="7">
         <f t="shared" si="34"/>
         <v>0.38419581899301669</v>
       </c>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B365" s="5"/>
       <c r="C365" s="5">
         <f t="shared" si="38"/>
@@ -7257,12 +7621,13 @@
       <c r="E365" s="6">
         <v>17.956</v>
       </c>
-      <c r="F365" s="7">
+      <c r="F365" s="6"/>
+      <c r="G365" s="7">
         <f t="shared" si="34"/>
         <v>0.38415612027936219</v>
       </c>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B366" s="5"/>
       <c r="C366" s="5">
         <f t="shared" si="38"/>
@@ -7275,12 +7640,13 @@
       <c r="E366" s="6">
         <v>18.015999999999998</v>
       </c>
-      <c r="F366" s="7">
+      <c r="F366" s="6"/>
+      <c r="G366" s="7">
         <f t="shared" si="34"/>
         <v>0.38411489244371544</v>
       </c>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B367" s="5"/>
       <c r="C367" s="5">
         <f t="shared" si="38"/>
@@ -7293,12 +7659,13 @@
       <c r="E367" s="6">
         <v>18.076000000000001</v>
       </c>
-      <c r="F367" s="7">
+      <c r="F367" s="6"/>
+      <c r="G367" s="7">
         <f t="shared" si="34"/>
         <v>0.38407350141558566</v>
       </c>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B368" s="4" t="s">
         <v>6</v>
       </c>
@@ -7312,12 +7679,13 @@
       <c r="E368" s="6">
         <v>18.138000000000002</v>
       </c>
-      <c r="F368" s="7">
+      <c r="F368" s="6"/>
+      <c r="G368" s="7">
         <f t="shared" si="34"/>
         <v>0.3840305589454146</v>
       </c>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B369" s="5"/>
       <c r="C369" s="5">
         <f t="shared" si="38"/>
@@ -7330,12 +7698,13 @@
       <c r="E369" s="6">
         <v>18.2</v>
       </c>
-      <c r="F369" s="7">
+      <c r="F369" s="6"/>
+      <c r="G369" s="7">
         <f t="shared" si="34"/>
         <v>0.38398744161063136</v>
       </c>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B370" s="5"/>
       <c r="C370" s="5">
         <f t="shared" si="38"/>
@@ -7348,12 +7717,13 @@
       <c r="E370" s="6">
         <v>18.263999999999999</v>
       </c>
-      <c r="F370" s="7">
+      <c r="F370" s="6"/>
+      <c r="G370" s="7">
         <f t="shared" si="34"/>
         <v>0.38394274964545788</v>
       </c>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B371" s="5"/>
       <c r="C371" s="5">
         <f t="shared" si="38"/>
@@ -7366,12 +7736,13 @@
       <c r="E371" s="6">
         <v>18.327999999999999</v>
       </c>
-      <c r="F371" s="7">
+      <c r="F371" s="6"/>
+      <c r="G371" s="7">
         <f t="shared" si="34"/>
         <v>0.3838978706725783</v>
       </c>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B372" s="5"/>
       <c r="C372" s="5">
         <f t="shared" ref="C372:D387" si="40">C371+1</f>
@@ -7384,12 +7755,13 @@
       <c r="E372" s="6">
         <v>18.393000000000001</v>
       </c>
-      <c r="F372" s="7">
-        <f t="shared" ref="F372:F398" si="41">ACOS((400^2+2*6371*400)^0.5/((6371+400)*COS(E372/180*PI())))/PI()</f>
+      <c r="F372" s="6"/>
+      <c r="G372" s="7">
+        <f t="shared" ref="G372:G398" si="41">ACOS((400^2+2*6371*400)^0.5/((6371+400)*COS(E372/180*PI())))/PI()</f>
         <v>0.38385209869433634</v>
       </c>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B373" s="5"/>
       <c r="C373" s="5">
         <f t="shared" si="40"/>
@@ -7402,12 +7774,13 @@
       <c r="E373" s="6">
         <v>18.459</v>
       </c>
-      <c r="F373" s="7">
+      <c r="F373" s="6"/>
+      <c r="G373" s="7">
         <f t="shared" si="41"/>
         <v>0.38380542441632509</v>
       </c>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B374" s="5"/>
       <c r="C374" s="5">
         <f t="shared" si="40"/>
@@ -7420,12 +7793,13 @@
       <c r="E374" s="6">
         <v>18.524999999999999</v>
       </c>
-      <c r="F374" s="7">
+      <c r="F374" s="6"/>
+      <c r="G374" s="7">
         <f t="shared" si="41"/>
         <v>0.38375855012693427</v>
       </c>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B375" s="5"/>
       <c r="C375" s="5">
         <f t="shared" si="40"/>
@@ -7438,12 +7812,13 @@
       <c r="E375" s="6">
         <v>18.591999999999999</v>
       </c>
-      <c r="F375" s="7">
+      <c r="F375" s="6"/>
+      <c r="G375" s="7">
         <f t="shared" si="41"/>
         <v>0.38371076064256621</v>
       </c>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B376" s="5"/>
       <c r="C376" s="5">
         <f t="shared" si="40"/>
@@ -7456,12 +7831,13 @@
       <c r="E376" s="6">
         <v>18.658999999999999</v>
       </c>
-      <c r="F376" s="7">
+      <c r="F376" s="6"/>
+      <c r="G376" s="7">
         <f t="shared" si="41"/>
         <v>0.38366276423293261</v>
       </c>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B377" s="5"/>
       <c r="C377" s="5">
         <f t="shared" si="40"/>
@@ -7474,12 +7850,13 @@
       <c r="E377" s="6">
         <v>18.725999999999999</v>
       </c>
-      <c r="F377" s="7">
+      <c r="F377" s="6"/>
+      <c r="G377" s="7">
         <f t="shared" si="41"/>
         <v>0.38361456048820475</v>
       </c>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B378" s="5"/>
       <c r="C378" s="5">
         <f t="shared" si="40"/>
@@ -7492,12 +7869,13 @@
       <c r="E378" s="6">
         <v>18.794</v>
       </c>
-      <c r="F378" s="7">
+      <c r="F378" s="6"/>
+      <c r="G378" s="7">
         <f t="shared" si="41"/>
         <v>0.38356542486116241</v>
       </c>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B379" s="5"/>
       <c r="C379" s="5">
         <f t="shared" si="40"/>
@@ -7510,12 +7888,13 @@
       <c r="E379" s="6">
         <v>18.861999999999998</v>
       </c>
-      <c r="F379" s="7">
+      <c r="F379" s="6"/>
+      <c r="G379" s="7">
         <f t="shared" si="41"/>
         <v>0.38351607480617506</v>
       </c>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B380" s="5"/>
       <c r="C380" s="5">
         <f t="shared" si="40"/>
@@ -7528,12 +7907,13 @@
       <c r="E380" s="6">
         <v>18.93</v>
       </c>
-      <c r="F380" s="7">
+      <c r="F380" s="6"/>
+      <c r="G380" s="7">
         <f t="shared" si="41"/>
         <v>0.38346650988775693</v>
       </c>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B381" s="5"/>
       <c r="C381" s="5">
         <f t="shared" si="40"/>
@@ -7546,12 +7926,13 @@
       <c r="E381" s="6">
         <v>18.998000000000001</v>
       </c>
-      <c r="F381" s="7">
+      <c r="F381" s="6"/>
+      <c r="G381" s="7">
         <f t="shared" si="41"/>
         <v>0.38341672966804036</v>
       </c>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B382" s="5"/>
       <c r="C382" s="5">
         <f t="shared" si="40"/>
@@ -7564,12 +7945,13 @@
       <c r="E382" s="6">
         <v>19.065999999999999</v>
       </c>
-      <c r="F382" s="7">
+      <c r="F382" s="6"/>
+      <c r="G382" s="7">
         <f t="shared" si="41"/>
         <v>0.38336673370676522</v>
       </c>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B383" s="5"/>
       <c r="C383" s="5">
         <f t="shared" si="40"/>
@@ -7582,12 +7964,13 @@
       <c r="E383" s="6">
         <v>19.134</v>
       </c>
-      <c r="F383" s="7">
+      <c r="F383" s="6"/>
+      <c r="G383" s="7">
         <f t="shared" si="41"/>
         <v>0.38331652156126872</v>
       </c>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B384" s="5"/>
       <c r="C384" s="5">
         <f t="shared" si="40"/>
@@ -7600,12 +7983,13 @@
       <c r="E384" s="6">
         <v>19.202000000000002</v>
       </c>
-      <c r="F384" s="7">
+      <c r="F384" s="6"/>
+      <c r="G384" s="7">
         <f t="shared" si="41"/>
         <v>0.38326609278647394</v>
       </c>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B385" s="5"/>
       <c r="C385" s="5">
         <f t="shared" si="40"/>
@@ -7618,12 +8002,13 @@
       <c r="E385" s="6">
         <v>19.268999999999998</v>
       </c>
-      <c r="F385" s="7">
+      <c r="F385" s="6"/>
+      <c r="G385" s="7">
         <f t="shared" si="41"/>
         <v>0.38321619330164963</v>
       </c>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B386" s="5"/>
       <c r="C386" s="5">
         <f t="shared" si="40"/>
@@ -7636,12 +8021,13 @@
       <c r="E386" s="6">
         <v>19.335999999999999</v>
       </c>
-      <c r="F386" s="7">
+      <c r="F386" s="6"/>
+      <c r="G386" s="7">
         <f t="shared" si="41"/>
         <v>0.38316608264733876</v>
       </c>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B387" s="5"/>
       <c r="C387" s="5">
         <f t="shared" si="40"/>
@@ -7654,12 +8040,13 @@
       <c r="E387" s="6">
         <v>19.402999999999999</v>
       </c>
-      <c r="F387" s="7">
+      <c r="F387" s="6"/>
+      <c r="G387" s="7">
         <f t="shared" si="41"/>
         <v>0.38311576039087658</v>
       </c>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B388" s="5"/>
       <c r="C388" s="5">
         <f t="shared" ref="C388:D398" si="42">C387+1</f>
@@ -7672,12 +8059,13 @@
       <c r="E388" s="6">
         <v>19.469000000000001</v>
       </c>
-      <c r="F388" s="7">
+      <c r="F388" s="6"/>
+      <c r="G388" s="7">
         <f t="shared" si="41"/>
         <v>0.38306598190134489</v>
       </c>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B389" s="5"/>
       <c r="C389" s="5">
         <f t="shared" si="42"/>
@@ -7690,12 +8078,13 @@
       <c r="E389" s="6">
         <v>19.533999999999999</v>
       </c>
-      <c r="F389" s="7">
+      <c r="F389" s="6"/>
+      <c r="G389" s="7">
         <f t="shared" si="41"/>
         <v>0.38301675612261243</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B390" s="5"/>
       <c r="C390" s="5">
         <f t="shared" si="42"/>
@@ -7708,12 +8097,13 @@
       <c r="E390" s="6">
         <v>19.597999999999999</v>
       </c>
-      <c r="F390" s="7">
+      <c r="F390" s="6"/>
+      <c r="G390" s="7">
         <f t="shared" si="41"/>
         <v>0.3829680918919473</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B391" s="5"/>
       <c r="C391" s="5">
         <f t="shared" si="42"/>
@@ -7726,12 +8116,13 @@
       <c r="E391" s="6">
         <v>19.661000000000001</v>
       </c>
-      <c r="F391" s="7">
+      <c r="F391" s="6"/>
+      <c r="G391" s="7">
         <f t="shared" si="41"/>
         <v>0.38291999793890175</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B392" s="5"/>
       <c r="C392" s="5">
         <f t="shared" si="42"/>
@@ -7744,12 +8135,13 @@
       <c r="E392" s="6">
         <v>19.724</v>
       </c>
-      <c r="F392" s="7">
+      <c r="F392" s="6"/>
+      <c r="G392" s="7">
         <f t="shared" si="41"/>
         <v>0.3828717150106008</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B393" s="5"/>
       <c r="C393" s="5">
         <f t="shared" si="42"/>
@@ -7762,12 +8154,13 @@
       <c r="E393" s="6">
         <v>19.785</v>
       </c>
-      <c r="F393" s="7">
+      <c r="F393" s="6"/>
+      <c r="G393" s="7">
         <f t="shared" si="41"/>
         <v>0.38282478445221907</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B394" s="5"/>
       <c r="C394" s="5">
         <f t="shared" si="42"/>
@@ -7780,12 +8173,13 @@
       <c r="E394" s="6">
         <v>19.844999999999999</v>
       </c>
-      <c r="F394" s="7">
+      <c r="F394" s="6"/>
+      <c r="G394" s="7">
         <f t="shared" si="41"/>
         <v>0.38277844974503211</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B395" s="5"/>
       <c r="C395" s="5">
         <f t="shared" si="42"/>
@@ -7798,12 +8192,13 @@
       <c r="E395" s="6">
         <v>19.904</v>
       </c>
-      <c r="F395" s="7">
+      <c r="F395" s="6"/>
+      <c r="G395" s="7">
         <f t="shared" si="41"/>
         <v>0.38273271917687662</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B396" s="5"/>
       <c r="C396" s="5">
         <f t="shared" si="42"/>
@@ -7816,12 +8211,13 @@
       <c r="E396" s="6">
         <v>19.962</v>
       </c>
-      <c r="F396" s="7">
+      <c r="F396" s="6"/>
+      <c r="G396" s="7">
         <f t="shared" si="41"/>
         <v>0.3826876009223415</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B397" s="5"/>
       <c r="C397" s="5">
         <f t="shared" si="42"/>
@@ -7834,12 +8230,13 @@
       <c r="E397" s="6">
         <v>20.018000000000001</v>
       </c>
-      <c r="F397" s="7">
+      <c r="F397" s="6"/>
+      <c r="G397" s="7">
         <f t="shared" si="41"/>
         <v>0.38264388505363095</v>
       </c>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B398" s="5"/>
       <c r="C398" s="5">
         <f t="shared" si="42"/>
@@ -7852,7 +8249,8 @@
       <c r="E398" s="6">
         <v>20.073</v>
       </c>
-      <c r="F398" s="7">
+      <c r="F398" s="6"/>
+      <c r="G398" s="7">
         <f t="shared" si="41"/>
         <v>0.38260080285289738</v>
       </c>
